--- a/天天利一号2018年10月收益表.xlsx
+++ b/天天利一号2018年10月收益表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +68,12 @@
     <t>2016年4月天天利盈亏情况</t>
   </si>
   <si>
+    <t>盈利</t>
+  </si>
+  <si>
+    <t>客户盈亏率10%</t>
+  </si>
+  <si>
     <t>2018年10月天天利一号盈亏情况</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>天天利盈亏额/元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>天天利数据汇总</t>
@@ -118,16 +121,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,22 +171,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +208,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,8 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,15 +282,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,30 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -332,13 +342,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,18 +396,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,36 +403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +420,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,55 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +499,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,16 +678,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,31 +726,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,21 +774,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,10 +782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,137 +794,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1055,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3209,6 +3234,9 @@
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>2018/10/9</c:v>
                 </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/10</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3227,8 +3255,8 @@
                 <c:pt idx="1">
                   <c:v>22.17</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                <c:pt idx="2">
+                  <c:v>7.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,6 +3356,9 @@
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>2018/10/9</c:v>
                 </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/10</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3344,7 +3375,10 @@
                   <c:v>0.00882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02434</c:v>
+                  <c:v>0.024339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.029512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10778,7 +10812,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6955790" y="883285"/>
-        <a:ext cx="9117330" cy="4183380"/>
+        <a:ext cx="9711690" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11439,7 +11473,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="85" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11456,167 +11490,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="81">
+      <c r="B6" s="86">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="79">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="81">
+      <c r="B7" s="86">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="79">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="81">
+      <c r="B8" s="86">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="79">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="81">
+      <c r="B9" s="86">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="79">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="81">
+      <c r="B10" s="86">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="81">
+      <c r="B11" s="86">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="81">
+      <c r="B12" s="86">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="81">
+      <c r="B13" s="86">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="81">
+      <c r="B14" s="86">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="81">
+      <c r="B15" s="86">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="81">
+      <c r="B16" s="86">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="81">
+      <c r="B17" s="86">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="81">
+      <c r="B18" s="86">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="81">
+      <c r="B19" s="86">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="81">
+      <c r="B20" s="86">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>-69.1</v>
       </c>
     </row>
@@ -11627,7 +11661,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>23</v>
       </c>
     </row>
@@ -11638,7 +11672,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>176.66</v>
       </c>
     </row>
@@ -11649,7 +11683,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>158</v>
       </c>
     </row>
@@ -11660,7 +11694,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>22.33</v>
       </c>
     </row>
@@ -11671,7 +11705,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>94.67</v>
       </c>
     </row>
@@ -11682,7 +11716,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>60</v>
       </c>
     </row>
@@ -11693,7 +11727,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="79">
         <v>67.46</v>
       </c>
     </row>
@@ -11704,7 +11738,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="79">
         <v>76.4</v>
       </c>
     </row>
@@ -11715,7 +11749,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="79">
         <v>60.66</v>
       </c>
     </row>
@@ -11726,7 +11760,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="79">
         <v>-108.47</v>
       </c>
     </row>
@@ -11737,7 +11771,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="79">
         <v>49.4</v>
       </c>
     </row>
@@ -11748,7 +11782,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="79">
         <v>69.73</v>
       </c>
     </row>
@@ -11759,7 +11793,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="79">
         <v>59.26</v>
       </c>
     </row>
@@ -11770,7 +11804,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="79">
         <v>36.66</v>
       </c>
     </row>
@@ -11781,7 +11815,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="79">
         <v>69.33</v>
       </c>
     </row>
@@ -11789,10 +11823,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="65">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="84">
         <v>26.4</v>
       </c>
     </row>
@@ -11803,7 +11837,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="79">
         <v>50</v>
       </c>
     </row>
@@ -11814,7 +11848,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="79">
         <v>51.66</v>
       </c>
     </row>
@@ -11825,7 +11859,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="79">
         <v>-61.25</v>
       </c>
     </row>
@@ -11836,7 +11870,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="79">
         <v>40.75</v>
       </c>
     </row>
@@ -11847,7 +11881,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="79">
         <v>41.25</v>
       </c>
     </row>
@@ -11858,7 +11892,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="79">
         <v>68.19</v>
       </c>
     </row>
@@ -11869,7 +11903,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="79">
         <v>-51.55</v>
       </c>
     </row>
@@ -11880,7 +11914,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="74">
+      <c r="D44" s="79">
         <v>-31.38</v>
       </c>
     </row>
@@ -11891,7 +11925,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="79">
         <v>47.74</v>
       </c>
     </row>
@@ -11902,7 +11936,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="79">
         <v>22.04</v>
       </c>
     </row>
@@ -11913,7 +11947,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="79">
         <v>33.29</v>
       </c>
     </row>
@@ -11924,7 +11958,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="74">
+      <c r="D48" s="79">
         <v>-37.95</v>
       </c>
     </row>
@@ -11935,7 +11969,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="79">
         <v>-27.51</v>
       </c>
     </row>
@@ -11946,7 +11980,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="79">
         <v>37.62</v>
       </c>
     </row>
@@ -11957,7 +11991,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="79">
         <v>20.56</v>
       </c>
     </row>
@@ -11968,7 +12002,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="79">
         <v>31.97</v>
       </c>
     </row>
@@ -11979,7 +12013,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="79">
         <v>21.43</v>
       </c>
     </row>
@@ -11990,7 +12024,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="74">
+      <c r="D54" s="79">
         <v>25.85</v>
       </c>
     </row>
@@ -12001,7 +12035,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="79">
         <v>-9.47</v>
       </c>
     </row>
@@ -12029,7 +12063,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="72" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -12060,14 +12094,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="73"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="78"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12076,7 +12110,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="79">
         <v>11.13</v>
       </c>
     </row>
@@ -12087,7 +12121,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="79">
         <v>-9.71</v>
       </c>
     </row>
@@ -12098,7 +12132,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>-12.26</v>
       </c>
     </row>
@@ -12109,7 +12143,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>8.6</v>
       </c>
     </row>
@@ -12120,7 +12154,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>6.16</v>
       </c>
     </row>
@@ -12131,7 +12165,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>7.19</v>
       </c>
     </row>
@@ -12142,7 +12176,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>25.24</v>
       </c>
     </row>
@@ -12153,7 +12187,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>33.1</v>
       </c>
     </row>
@@ -12164,7 +12198,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>-13.26</v>
       </c>
     </row>
@@ -12175,7 +12209,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>8.71</v>
       </c>
     </row>
@@ -12186,7 +12220,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>6.02</v>
       </c>
     </row>
@@ -12197,7 +12231,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>15.17</v>
       </c>
     </row>
@@ -12208,7 +12242,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>-24.9</v>
       </c>
     </row>
@@ -12219,7 +12253,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>5.59</v>
       </c>
     </row>
@@ -12230,7 +12264,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>9.46</v>
       </c>
     </row>
@@ -12241,7 +12275,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>-2.89</v>
       </c>
     </row>
@@ -12252,7 +12286,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>-7.94</v>
       </c>
     </row>
@@ -12263,7 +12297,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>-11.84</v>
       </c>
     </row>
@@ -12274,7 +12308,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>5.15</v>
       </c>
     </row>
@@ -12285,7 +12319,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="79">
         <v>9.25</v>
       </c>
     </row>
@@ -12296,7 +12330,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="79">
         <v>-13.74</v>
       </c>
     </row>
@@ -12316,13 +12350,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B4:F29"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
@@ -12331,36 +12365,53 @@
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
     <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="19" width="9" style="1"/>
+    <col min="8" max="8" width="17.6666666666667" style="44" customWidth="1"/>
+    <col min="9" max="19" width="9" style="1"/>
     <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="7:8">
+      <c r="G2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="7:8">
+      <c r="G3" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.001</v>
+      </c>
+    </row>
     <row r="4" ht="28.5" customHeight="1" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="2:6">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="D5" s="49" t="s">
         <v>17</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:6">
@@ -12370,13 +12421,13 @@
       <c r="C6" s="38">
         <v>0.00882</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="51">
         <v>0.00882</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="52">
         <v>8.82</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="52">
         <v>12.6</v>
       </c>
     </row>
@@ -12384,176 +12435,190 @@
       <c r="B7" s="34">
         <v>43382</v>
       </c>
-      <c r="C7" s="48">
-        <v>0.02434</v>
-      </c>
-      <c r="D7" s="49">
-        <v>0.02434</v>
-      </c>
-      <c r="E7" s="47">
+      <c r="C7" s="53">
+        <f>$E7*$H$3+$D6</f>
+        <v>0.024339</v>
+      </c>
+      <c r="D7" s="54">
+        <f>$E7*$H$3+$D6</f>
+        <v>0.024339</v>
+      </c>
+      <c r="E7" s="52">
+        <f>IF(F7&gt;0,$F7*$G$3,IF(F7&lt;0,F7))</f>
         <v>15.519</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="52">
         <v>22.17</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B8" s="34"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="34">
+        <v>43383</v>
+      </c>
+      <c r="C8" s="53">
+        <f>$E8*$H$3+$D7</f>
+        <v>0.029512</v>
+      </c>
+      <c r="D8" s="54">
+        <f>$E8*$H$3+$D7</f>
+        <v>0.029512</v>
+      </c>
+      <c r="E8" s="52">
+        <f>IF(F8&gt;0,$F8*$G$3,IF(F8&lt;0,F8))</f>
+        <v>5.173</v>
+      </c>
+      <c r="F8" s="52">
+        <v>7.39</v>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:6">
       <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:6">
       <c r="B10" s="34"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:6">
       <c r="B11" s="34"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:6">
       <c r="B12" s="34"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6">
       <c r="B13" s="34"/>
       <c r="C13" s="38"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:6">
       <c r="B14" s="34"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:6">
       <c r="B15" s="34"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="55"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:6">
       <c r="B16" s="34"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="55"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:6">
       <c r="B17" s="34"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="54"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
       <c r="B18" s="34"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="54"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
       <c r="B19" s="34"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="54"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
       <c r="B20" s="34"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="67"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="67"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="53"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="67"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="67"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="71"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="55"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12846,7 +12911,7 @@
   <sheetData>
     <row r="2" ht="30.75" customHeight="1" spans="2:4">
       <c r="B2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -12871,7 +12936,7 @@
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="2:4">
       <c r="B5" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10">
         <v>0.0629</v>
@@ -12900,7 +12965,7 @@
     </row>
     <row r="8" ht="26.25" customHeight="1" spans="2:4">
       <c r="B8" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10">
         <v>0.2748</v>
@@ -12929,7 +12994,7 @@
     </row>
     <row r="11" ht="26.25" customHeight="1" spans="2:4">
       <c r="B11" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10">
         <v>0.5026</v>
@@ -12940,7 +13005,7 @@
     </row>
     <row r="12" ht="26.25" customHeight="1" spans="2:4">
       <c r="B12" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -12965,7 +13030,7 @@
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="2:4">
       <c r="B15" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10">
         <v>0.0643</v>
@@ -12994,7 +13059,7 @@
     </row>
     <row r="18" ht="26.25" customHeight="1" spans="2:4">
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10">
         <v>0.1333</v>
@@ -13023,7 +13088,7 @@
     </row>
     <row r="21" ht="26.25" customHeight="1" spans="2:4">
       <c r="B21" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10">
         <v>0.1768</v>
@@ -13052,7 +13117,7 @@
     </row>
     <row r="24" ht="26.25" customHeight="1" spans="2:4">
       <c r="B24" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10">
         <v>0.243</v>
@@ -13226,7 +13291,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="85" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13250,79 +13315,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="81">
+      <c r="B6" s="86">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="79">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="81">
+      <c r="B7" s="86">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="79">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="81">
+      <c r="B8" s="86">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="79">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="81">
+      <c r="B9" s="86">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="79">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="81">
+      <c r="B10" s="86">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="82">
+      <c r="B11" s="87">
         <v>42307</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="65">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="84">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="81">
         <v>146.3</v>
       </c>
     </row>
@@ -13352,7 +13417,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="85" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13376,108 +13441,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="81">
+      <c r="B6" s="86">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="81">
+      <c r="B7" s="86">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="79">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="81">
+      <c r="B8" s="86">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="79">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="81">
+      <c r="B9" s="86">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="79">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="81">
+      <c r="B10" s="86">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="81">
+      <c r="B11" s="86">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="81">
+      <c r="B12" s="86">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="81">
+      <c r="B13" s="86">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="81">
+      <c r="B14" s="86">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="81">
+      <c r="B15" s="86">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>-69.1</v>
       </c>
     </row>
@@ -13488,7 +13553,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>23</v>
       </c>
     </row>
@@ -13499,7 +13564,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>176.66</v>
       </c>
     </row>
@@ -13510,7 +13575,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>158</v>
       </c>
     </row>
@@ -13521,7 +13586,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>22.33</v>
       </c>
     </row>
@@ -13532,7 +13597,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>94.67</v>
       </c>
     </row>
@@ -13543,7 +13608,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>60</v>
       </c>
     </row>
@@ -13554,7 +13619,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>67.46</v>
       </c>
     </row>
@@ -13565,7 +13630,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>76.4</v>
       </c>
     </row>
@@ -13576,7 +13641,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>60.66</v>
       </c>
     </row>
@@ -13587,7 +13652,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>-108.47</v>
       </c>
     </row>
@@ -13598,7 +13663,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -13613,10 +13678,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="65">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="84">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -13624,13 +13689,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="81">
         <v>657.37</v>
       </c>
     </row>
@@ -13659,7 +13724,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="72" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
     <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
@@ -13691,7 +13756,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="79">
         <v>59.26</v>
       </c>
     </row>
@@ -13702,7 +13767,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="79">
         <v>36.66</v>
       </c>
     </row>
@@ -13713,7 +13778,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="79">
         <v>69.33</v>
       </c>
     </row>
@@ -13721,10 +13786,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="65">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="84">
         <v>26.4</v>
       </c>
     </row>
@@ -13735,7 +13800,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>50</v>
       </c>
     </row>
@@ -13746,7 +13811,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>51.66</v>
       </c>
     </row>
@@ -13757,7 +13822,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>-61.25</v>
       </c>
     </row>
@@ -13768,7 +13833,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>40.75</v>
       </c>
     </row>
@@ -13779,7 +13844,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>41.25</v>
       </c>
     </row>
@@ -13790,7 +13855,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>68.19</v>
       </c>
     </row>
@@ -13801,7 +13866,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>-51.55</v>
       </c>
     </row>
@@ -13812,7 +13877,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>-31.38</v>
       </c>
     </row>
@@ -13823,7 +13888,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>47.74</v>
       </c>
     </row>
@@ -13834,7 +13899,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>22.04</v>
       </c>
     </row>
@@ -13845,7 +13910,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>33.29</v>
       </c>
     </row>
@@ -13856,7 +13921,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>-37.95</v>
       </c>
     </row>
@@ -13867,7 +13932,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>-27.51</v>
       </c>
     </row>
@@ -13878,7 +13943,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>37.62</v>
       </c>
     </row>
@@ -13889,7 +13954,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>20.56</v>
       </c>
     </row>
@@ -13900,7 +13965,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>31.97</v>
       </c>
     </row>
@@ -13911,7 +13976,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>21.43</v>
       </c>
     </row>
@@ -13922,7 +13987,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="79">
         <v>25.85</v>
       </c>
     </row>
@@ -13933,18 +13998,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="79">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="81">
         <v>259.69</v>
       </c>
     </row>
@@ -13973,7 +14038,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="72" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -13997,31 +14062,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="65">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="84">
         <v>5.98</v>
       </c>
     </row>
@@ -14032,7 +14097,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>10.15</v>
       </c>
     </row>
@@ -14043,7 +14108,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>-11.75</v>
       </c>
     </row>
@@ -14054,7 +14119,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>16.39</v>
       </c>
     </row>
@@ -14065,7 +14130,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>-25.55</v>
       </c>
     </row>
@@ -14076,7 +14141,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>11.45</v>
       </c>
     </row>
@@ -14087,7 +14152,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>7.68</v>
       </c>
     </row>
@@ -14098,7 +14163,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>-8.57</v>
       </c>
     </row>
@@ -14109,7 +14174,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>-15.65</v>
       </c>
     </row>
@@ -14120,7 +14185,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>10.16</v>
       </c>
     </row>
@@ -14131,7 +14196,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>17.65</v>
       </c>
     </row>
@@ -14142,7 +14207,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>21.08</v>
       </c>
     </row>
@@ -14153,7 +14218,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>-13.14</v>
       </c>
     </row>
@@ -14164,7 +14229,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>-17.07</v>
       </c>
     </row>
@@ -14175,7 +14240,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>9.69</v>
       </c>
     </row>
@@ -14186,7 +14251,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>-7.94</v>
       </c>
     </row>
@@ -14197,7 +14262,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>9.42</v>
       </c>
     </row>
@@ -14208,7 +14273,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>21.99</v>
       </c>
     </row>
@@ -14219,7 +14284,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="79">
         <v>14.64</v>
       </c>
     </row>
@@ -14230,7 +14295,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="79">
         <v>8.1</v>
       </c>
     </row>
@@ -14241,7 +14306,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="78">
         <v>-8.61</v>
       </c>
     </row>
@@ -14252,7 +14317,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="78">
         <v>11.67</v>
       </c>
     </row>
@@ -14263,7 +14328,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="73">
+      <c r="D31" s="78">
         <v>10.26</v>
       </c>
     </row>
@@ -14274,7 +14339,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="78">
         <v>11.04</v>
       </c>
     </row>
@@ -14285,7 +14350,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="78">
         <v>13.18</v>
       </c>
     </row>
@@ -14296,7 +14361,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="79">
         <v>12.06</v>
       </c>
     </row>
@@ -14307,7 +14372,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="79">
         <v>8.89</v>
       </c>
     </row>
@@ -14318,7 +14383,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="79">
         <v>10.88</v>
       </c>
     </row>
@@ -14472,7 +14537,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="79">
         <v>-14.86</v>
       </c>
     </row>
@@ -14483,7 +14548,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="79">
         <v>11.3</v>
       </c>
     </row>
@@ -14494,7 +14559,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="79">
         <v>-9.92</v>
       </c>
     </row>
@@ -14505,7 +14570,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="79">
         <v>8.18</v>
       </c>
     </row>
@@ -14516,7 +14581,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="74">
+      <c r="D54" s="79">
         <v>-4.63</v>
       </c>
     </row>
@@ -14544,7 +14609,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="72" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -14574,31 +14639,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="65">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="84">
         <v>5.98</v>
       </c>
     </row>
@@ -14609,7 +14674,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>10.15</v>
       </c>
     </row>
@@ -14620,7 +14685,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>-11.75</v>
       </c>
     </row>
@@ -14631,7 +14696,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>16.39</v>
       </c>
     </row>
@@ -14642,7 +14707,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>-25.55</v>
       </c>
     </row>
@@ -14653,7 +14718,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>11.45</v>
       </c>
     </row>
@@ -14664,7 +14729,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>7.68</v>
       </c>
     </row>
@@ -14675,7 +14740,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>-8.57</v>
       </c>
     </row>
@@ -14686,7 +14751,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>-15.65</v>
       </c>
     </row>
@@ -14697,7 +14762,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>10.16</v>
       </c>
     </row>
@@ -14708,7 +14773,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>17.65</v>
       </c>
     </row>
@@ -14719,7 +14784,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>21.08</v>
       </c>
     </row>
@@ -14730,7 +14795,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>-13.14</v>
       </c>
     </row>
@@ -14741,7 +14806,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>-17.07</v>
       </c>
     </row>
@@ -14752,7 +14817,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>9.69</v>
       </c>
     </row>
@@ -14763,7 +14828,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>-7.94</v>
       </c>
     </row>
@@ -14774,7 +14839,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>9.42</v>
       </c>
     </row>
@@ -14785,7 +14850,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>21.99</v>
       </c>
     </row>
@@ -14796,7 +14861,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="79">
         <v>14.64</v>
       </c>
     </row>
@@ -14807,7 +14872,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="79">
         <v>8.1</v>
       </c>
     </row>
@@ -14816,23 +14881,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="79"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="74"/>
+      <c r="D30" s="79"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="76">
+      <c r="D31" s="81">
         <v>15.39</v>
       </c>
     </row>
@@ -15064,13 +15129,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="81">
         <v>35.86</v>
       </c>
     </row>
@@ -15099,7 +15164,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="72" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -15132,7 +15197,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="78">
         <v>11.57</v>
       </c>
     </row>
@@ -15143,7 +15208,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="78">
         <v>2.01</v>
       </c>
     </row>
@@ -15154,7 +15219,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="78">
         <v>7.37</v>
       </c>
     </row>
@@ -15165,7 +15230,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="78">
         <v>10.32</v>
       </c>
     </row>
@@ -15176,7 +15241,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="78">
         <v>8.22</v>
       </c>
     </row>
@@ -15187,7 +15252,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>-14.86</v>
       </c>
     </row>
@@ -15198,7 +15263,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>11.3</v>
       </c>
     </row>
@@ -15209,7 +15274,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>-9.92</v>
       </c>
     </row>
@@ -15220,7 +15285,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>8.18</v>
       </c>
     </row>
@@ -15231,7 +15296,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>-4.63</v>
       </c>
     </row>
@@ -15242,7 +15307,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>-13.93</v>
       </c>
     </row>
@@ -15253,7 +15318,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>8.68</v>
       </c>
     </row>
@@ -15264,7 +15329,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>8.19</v>
       </c>
     </row>
@@ -15275,7 +15340,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>11.79</v>
       </c>
     </row>
@@ -15286,7 +15351,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>7.63</v>
       </c>
     </row>
@@ -15297,7 +15362,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>11.12</v>
       </c>
     </row>
@@ -15308,7 +15373,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>-10.16</v>
       </c>
     </row>
@@ -15319,7 +15384,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>26.29</v>
       </c>
     </row>
@@ -15330,7 +15395,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>-6.01</v>
       </c>
     </row>
@@ -15341,7 +15406,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>7.72</v>
       </c>
     </row>
@@ -15352,7 +15417,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="79">
         <v>-8.29</v>
       </c>
     </row>
@@ -15363,7 +15428,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="79">
         <v>10.41</v>
       </c>
     </row>
@@ -15374,18 +15439,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="79">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="81">
         <v>30.41</v>
       </c>
     </row>
@@ -15414,7 +15479,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="72" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -15447,7 +15512,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="78">
         <v>9.93</v>
       </c>
     </row>
@@ -15458,7 +15523,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="78">
         <v>21.55</v>
       </c>
     </row>
@@ -15469,7 +15534,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="79">
         <v>-9.01</v>
       </c>
     </row>
@@ -15480,7 +15545,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="79">
         <v>12.66</v>
       </c>
     </row>
@@ -15491,7 +15556,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="79">
         <v>-12.17</v>
       </c>
     </row>
@@ -15502,7 +15567,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="79">
         <v>34.53</v>
       </c>
     </row>
@@ -15513,7 +15578,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="79">
         <v>8.89</v>
       </c>
     </row>
@@ -15524,7 +15589,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="79">
         <v>32.33</v>
       </c>
     </row>
@@ -15535,7 +15600,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="79">
         <v>-17.71</v>
       </c>
     </row>
@@ -15546,7 +15611,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="79">
         <v>-15.53</v>
       </c>
     </row>
@@ -15557,7 +15622,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="79">
         <v>9.57</v>
       </c>
     </row>
@@ -15568,7 +15633,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="79">
         <v>-7.86</v>
       </c>
     </row>
@@ -15579,7 +15644,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="79">
         <v>6.81</v>
       </c>
     </row>
@@ -15590,7 +15655,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="79">
         <v>21.56</v>
       </c>
     </row>
@@ -15601,7 +15666,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="79">
         <v>-18.57</v>
       </c>
     </row>
@@ -15612,7 +15677,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="79">
         <v>12.33</v>
       </c>
     </row>
@@ -15623,7 +15688,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="79">
         <v>8.05</v>
       </c>
     </row>
@@ -15634,7 +15699,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>-23.18</v>
       </c>
     </row>
@@ -15645,7 +15710,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="79">
         <v>-15.23</v>
       </c>
     </row>
@@ -15656,7 +15721,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="79">
         <v>20.29</v>
       </c>
     </row>
@@ -15665,16 +15730,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="79"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="81">
         <v>40.11</v>
       </c>
     </row>

--- a/天天利一号2018年10月收益表.xlsx
+++ b/天天利一号2018年10月收益表.xlsx
@@ -121,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -178,7 +178,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,23 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +244,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,32 +291,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,32 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,156 +342,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,7 +360,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,17 +677,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +736,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -754,26 +774,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,133 +794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3237,6 +3237,9 @@
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>2018/10/10</c:v>
                 </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/11</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3257,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,6 +3365,9 @@
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>2018/10/10</c:v>
                 </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/11</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3379,6 +3388,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.029512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.010382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12353,7 +12365,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -12472,11 +12484,24 @@
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B9" s="34"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="B9" s="34">
+        <v>43384</v>
+      </c>
+      <c r="C9" s="53">
+        <f>$E9*$H$3+$D8</f>
+        <v>0.010382</v>
+      </c>
+      <c r="D9" s="54">
+        <f>$E9*$H$3+$D8</f>
+        <v>0.010382</v>
+      </c>
+      <c r="E9" s="52">
+        <f>IF(F9&gt;0,$F9*$G$3,IF(F9&lt;0,F9))</f>
+        <v>-19.13</v>
+      </c>
+      <c r="F9" s="52">
+        <v>-19.13</v>
+      </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:6">
       <c r="B10" s="34"/>

--- a/天天利一号2018年10月收益表.xlsx
+++ b/天天利一号2018年10月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9947" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -120,15 +120,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -214,11 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,8 +231,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +284,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -267,8 +291,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,40 +315,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,19 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +385,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +481,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,37 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,24 +524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,6 +698,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -744,36 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,31 +795,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,162 +828,162 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -991,13 +992,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,7 +1052,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1072,13 +1073,13 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,19 +1088,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,31 +1124,34 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,43 +1160,46 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,16 +3248,19 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/8</c:v>
+                  <c:v>2018-10-8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/9</c:v>
+                  <c:v>2018-10-9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/10</c:v>
+                  <c:v>2018-10-10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/11</c:v>
+                  <c:v>2018-10-11</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018-10-12</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3263,6 +3285,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-19.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,16 +3382,19 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/8</c:v>
+                  <c:v>2018-10-8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/9</c:v>
+                  <c:v>2018-10-9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/10</c:v>
+                  <c:v>2018-10-10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/11</c:v>
+                  <c:v>2018-10-11</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018-10-12</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3391,6 +3419,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.010382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.020119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11485,7 +11516,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="91" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11502,167 +11533,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="86">
+      <c r="B6" s="92">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="85">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="86">
+      <c r="B7" s="92">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="85">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="86">
+      <c r="B8" s="92">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="85">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="86">
+      <c r="B9" s="92">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="85">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="86">
+      <c r="B10" s="92">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="86">
+      <c r="B11" s="92">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="86">
+      <c r="B12" s="92">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="86">
+      <c r="B13" s="92">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="86">
+      <c r="B14" s="92">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="86">
+      <c r="B15" s="92">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="86">
+      <c r="B16" s="92">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="86">
+      <c r="B17" s="92">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="86">
+      <c r="B18" s="92">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="86">
+      <c r="B19" s="92">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="86">
+      <c r="B20" s="92">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>-69.1</v>
       </c>
     </row>
@@ -11673,7 +11704,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>23</v>
       </c>
     </row>
@@ -11684,7 +11715,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>176.66</v>
       </c>
     </row>
@@ -11695,7 +11726,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>158</v>
       </c>
     </row>
@@ -11706,7 +11737,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>22.33</v>
       </c>
     </row>
@@ -11717,7 +11748,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>94.67</v>
       </c>
     </row>
@@ -11728,7 +11759,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>60</v>
       </c>
     </row>
@@ -11739,7 +11770,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="85">
         <v>67.46</v>
       </c>
     </row>
@@ -11750,7 +11781,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="85">
         <v>76.4</v>
       </c>
     </row>
@@ -11761,7 +11792,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="85">
         <v>60.66</v>
       </c>
     </row>
@@ -11772,7 +11803,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="85">
         <v>-108.47</v>
       </c>
     </row>
@@ -11783,7 +11814,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="85">
         <v>49.4</v>
       </c>
     </row>
@@ -11794,7 +11825,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="85">
         <v>69.73</v>
       </c>
     </row>
@@ -11805,7 +11836,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="85">
         <v>59.26</v>
       </c>
     </row>
@@ -11816,7 +11847,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="85">
         <v>36.66</v>
       </c>
     </row>
@@ -11827,7 +11858,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="85">
         <v>69.33</v>
       </c>
     </row>
@@ -11835,10 +11866,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="69">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="90">
         <v>26.4</v>
       </c>
     </row>
@@ -11849,7 +11880,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="79">
+      <c r="D37" s="85">
         <v>50</v>
       </c>
     </row>
@@ -11860,7 +11891,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="79">
+      <c r="D38" s="85">
         <v>51.66</v>
       </c>
     </row>
@@ -11871,7 +11902,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="85">
         <v>-61.25</v>
       </c>
     </row>
@@ -11882,7 +11913,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="79">
+      <c r="D40" s="85">
         <v>40.75</v>
       </c>
     </row>
@@ -11893,7 +11924,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="85">
         <v>41.25</v>
       </c>
     </row>
@@ -11904,7 +11935,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="79">
+      <c r="D42" s="85">
         <v>68.19</v>
       </c>
     </row>
@@ -11915,7 +11946,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="79">
+      <c r="D43" s="85">
         <v>-51.55</v>
       </c>
     </row>
@@ -11926,7 +11957,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="79">
+      <c r="D44" s="85">
         <v>-31.38</v>
       </c>
     </row>
@@ -11937,7 +11968,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="79">
+      <c r="D45" s="85">
         <v>47.74</v>
       </c>
     </row>
@@ -11948,7 +11979,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="79">
+      <c r="D46" s="85">
         <v>22.04</v>
       </c>
     </row>
@@ -11959,7 +11990,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="79">
+      <c r="D47" s="85">
         <v>33.29</v>
       </c>
     </row>
@@ -11970,7 +12001,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="79">
+      <c r="D48" s="85">
         <v>-37.95</v>
       </c>
     </row>
@@ -11981,7 +12012,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="85">
         <v>-27.51</v>
       </c>
     </row>
@@ -11992,7 +12023,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="79">
+      <c r="D50" s="85">
         <v>37.62</v>
       </c>
     </row>
@@ -12003,7 +12034,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="85">
         <v>20.56</v>
       </c>
     </row>
@@ -12014,7 +12045,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="79">
+      <c r="D52" s="85">
         <v>31.97</v>
       </c>
     </row>
@@ -12025,7 +12056,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="79">
+      <c r="D53" s="85">
         <v>21.43</v>
       </c>
     </row>
@@ -12036,7 +12067,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="79">
+      <c r="D54" s="85">
         <v>25.85</v>
       </c>
     </row>
@@ -12047,7 +12078,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="79">
+      <c r="D55" s="85">
         <v>-9.47</v>
       </c>
     </row>
@@ -12075,7 +12106,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -12106,14 +12137,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="78"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="78"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12122,7 +12153,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="85">
         <v>11.13</v>
       </c>
     </row>
@@ -12133,7 +12164,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="85">
         <v>-9.71</v>
       </c>
     </row>
@@ -12144,7 +12175,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>-12.26</v>
       </c>
     </row>
@@ -12155,7 +12186,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>8.6</v>
       </c>
     </row>
@@ -12166,7 +12197,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>6.16</v>
       </c>
     </row>
@@ -12177,7 +12208,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>7.19</v>
       </c>
     </row>
@@ -12188,7 +12219,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>25.24</v>
       </c>
     </row>
@@ -12199,7 +12230,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>33.1</v>
       </c>
     </row>
@@ -12210,7 +12241,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>-13.26</v>
       </c>
     </row>
@@ -12221,7 +12252,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>8.71</v>
       </c>
     </row>
@@ -12232,7 +12263,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>6.02</v>
       </c>
     </row>
@@ -12243,7 +12274,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>15.17</v>
       </c>
     </row>
@@ -12254,7 +12285,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>-24.9</v>
       </c>
     </row>
@@ -12265,7 +12296,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>5.59</v>
       </c>
     </row>
@@ -12276,7 +12307,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>9.46</v>
       </c>
     </row>
@@ -12287,7 +12318,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>-2.89</v>
       </c>
     </row>
@@ -12298,7 +12329,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>-7.94</v>
       </c>
     </row>
@@ -12309,7 +12340,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>-11.84</v>
       </c>
     </row>
@@ -12320,7 +12351,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>5.15</v>
       </c>
     </row>
@@ -12331,7 +12362,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="85">
         <v>9.25</v>
       </c>
     </row>
@@ -12342,7 +12373,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="85">
         <v>-13.74</v>
       </c>
     </row>
@@ -12364,8 +12395,8 @@
   </sheetPr>
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -12495,7 +12526,7 @@
         <f>$E9*$H$3+$D8</f>
         <v>0.010382</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="55">
         <f>IF(F9&gt;0,$F9*$G$3,IF(F9&lt;0,F9))</f>
         <v>-19.13</v>
       </c>
@@ -12504,137 +12535,150 @@
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B10" s="34"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="B10" s="34">
+        <v>43385</v>
+      </c>
+      <c r="C10" s="53">
+        <f>$E10*$H$3+$D9</f>
+        <v>0.020119</v>
+      </c>
+      <c r="D10" s="54">
+        <f>$E10*$H$3+$D9</f>
+        <v>0.020119</v>
+      </c>
+      <c r="E10" s="55">
+        <f>IF(F10&gt;0,$F10*$G$3,IF(F10&lt;0,F10))</f>
+        <v>9.737</v>
+      </c>
+      <c r="F10" s="52">
+        <v>13.91</v>
+      </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:6">
       <c r="B11" s="34"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:6">
       <c r="B12" s="34"/>
       <c r="C12" s="53"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6">
       <c r="B13" s="34"/>
       <c r="C13" s="38"/>
       <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="52"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:6">
       <c r="B14" s="34"/>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:6">
       <c r="B15" s="34"/>
       <c r="C15" s="53"/>
       <c r="D15" s="54"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:6">
       <c r="B16" s="34"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:6">
       <c r="B17" s="34"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="59"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
       <c r="B18" s="34"/>
       <c r="C18" s="38"/>
       <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="59"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
       <c r="B19" s="34"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="59"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
       <c r="B20" s="34"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
       <c r="C21" s="53"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="68"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="73"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
       <c r="C24" s="10"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="72"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="72"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="58"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="72"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="38"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="72"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="38"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="76"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="82"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
@@ -12642,8 +12686,8 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="51"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13316,7 +13360,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="91" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13340,79 +13384,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="86">
+      <c r="B6" s="92">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="85">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="86">
+      <c r="B7" s="92">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="85">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="86">
+      <c r="B8" s="92">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="85">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="86">
+      <c r="B9" s="92">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="85">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="86">
+      <c r="B10" s="92">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="87">
+      <c r="B11" s="93">
         <v>42307</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="69">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="90">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="87">
         <v>146.3</v>
       </c>
     </row>
@@ -13442,7 +13486,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="91" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13466,108 +13510,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="86">
+      <c r="B6" s="92">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="86">
+      <c r="B7" s="92">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="85">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="86">
+      <c r="B8" s="92">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="85">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="86">
+      <c r="B9" s="92">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="85">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="86">
+      <c r="B10" s="92">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="86">
+      <c r="B11" s="92">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="86">
+      <c r="B12" s="92">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="86">
+      <c r="B13" s="92">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="86">
+      <c r="B14" s="92">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="86">
+      <c r="B15" s="92">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>-69.1</v>
       </c>
     </row>
@@ -13578,7 +13622,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>23</v>
       </c>
     </row>
@@ -13589,7 +13633,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>176.66</v>
       </c>
     </row>
@@ -13600,7 +13644,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>158</v>
       </c>
     </row>
@@ -13611,7 +13655,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>22.33</v>
       </c>
     </row>
@@ -13622,7 +13666,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>94.67</v>
       </c>
     </row>
@@ -13633,7 +13677,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>60</v>
       </c>
     </row>
@@ -13644,7 +13688,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>67.46</v>
       </c>
     </row>
@@ -13655,7 +13699,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>76.4</v>
       </c>
     </row>
@@ -13666,7 +13710,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>60.66</v>
       </c>
     </row>
@@ -13677,7 +13721,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>-108.47</v>
       </c>
     </row>
@@ -13688,7 +13732,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -13703,10 +13747,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="69">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="90">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -13714,13 +13758,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="87">
         <v>657.37</v>
       </c>
     </row>
@@ -13749,7 +13793,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
     <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
@@ -13781,7 +13825,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="85">
         <v>59.26</v>
       </c>
     </row>
@@ -13792,7 +13836,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="85">
         <v>36.66</v>
       </c>
     </row>
@@ -13803,7 +13847,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="85">
         <v>69.33</v>
       </c>
     </row>
@@ -13811,10 +13855,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="69">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="90">
         <v>26.4</v>
       </c>
     </row>
@@ -13825,7 +13869,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>50</v>
       </c>
     </row>
@@ -13836,7 +13880,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>51.66</v>
       </c>
     </row>
@@ -13847,7 +13891,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>-61.25</v>
       </c>
     </row>
@@ -13858,7 +13902,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>40.75</v>
       </c>
     </row>
@@ -13869,7 +13913,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>41.25</v>
       </c>
     </row>
@@ -13880,7 +13924,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>68.19</v>
       </c>
     </row>
@@ -13891,7 +13935,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>-51.55</v>
       </c>
     </row>
@@ -13902,7 +13946,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>-31.38</v>
       </c>
     </row>
@@ -13913,7 +13957,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>47.74</v>
       </c>
     </row>
@@ -13924,7 +13968,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>22.04</v>
       </c>
     </row>
@@ -13935,7 +13979,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>33.29</v>
       </c>
     </row>
@@ -13946,7 +13990,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>-37.95</v>
       </c>
     </row>
@@ -13957,7 +14001,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>-27.51</v>
       </c>
     </row>
@@ -13968,7 +14012,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>37.62</v>
       </c>
     </row>
@@ -13979,7 +14023,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>20.56</v>
       </c>
     </row>
@@ -13990,7 +14034,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>31.97</v>
       </c>
     </row>
@@ -14001,7 +14045,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>21.43</v>
       </c>
     </row>
@@ -14012,7 +14056,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="85">
         <v>25.85</v>
       </c>
     </row>
@@ -14023,18 +14067,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="85">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="87">
         <v>259.69</v>
       </c>
     </row>
@@ -14063,7 +14107,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -14087,31 +14131,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="69">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="90">
         <v>5.98</v>
       </c>
     </row>
@@ -14122,7 +14166,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>10.15</v>
       </c>
     </row>
@@ -14133,7 +14177,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>-11.75</v>
       </c>
     </row>
@@ -14144,7 +14188,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>16.39</v>
       </c>
     </row>
@@ -14155,7 +14199,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>-25.55</v>
       </c>
     </row>
@@ -14166,7 +14210,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>11.45</v>
       </c>
     </row>
@@ -14177,7 +14221,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>7.68</v>
       </c>
     </row>
@@ -14188,7 +14232,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>-8.57</v>
       </c>
     </row>
@@ -14199,7 +14243,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>-15.65</v>
       </c>
     </row>
@@ -14210,7 +14254,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>10.16</v>
       </c>
     </row>
@@ -14221,7 +14265,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>17.65</v>
       </c>
     </row>
@@ -14232,7 +14276,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>21.08</v>
       </c>
     </row>
@@ -14243,7 +14287,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>-13.14</v>
       </c>
     </row>
@@ -14254,7 +14298,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>-17.07</v>
       </c>
     </row>
@@ -14265,7 +14309,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>9.69</v>
       </c>
     </row>
@@ -14276,7 +14320,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>-7.94</v>
       </c>
     </row>
@@ -14287,7 +14331,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>9.42</v>
       </c>
     </row>
@@ -14298,7 +14342,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>21.99</v>
       </c>
     </row>
@@ -14309,7 +14353,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="85">
         <v>14.64</v>
       </c>
     </row>
@@ -14320,7 +14364,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="85">
         <v>8.1</v>
       </c>
     </row>
@@ -14331,7 +14375,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="84">
         <v>-8.61</v>
       </c>
     </row>
@@ -14342,7 +14386,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="84">
         <v>11.67</v>
       </c>
     </row>
@@ -14353,7 +14397,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="78">
+      <c r="D31" s="84">
         <v>10.26</v>
       </c>
     </row>
@@ -14364,7 +14408,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="78">
+      <c r="D32" s="84">
         <v>11.04</v>
       </c>
     </row>
@@ -14375,7 +14419,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="78">
+      <c r="D33" s="84">
         <v>13.18</v>
       </c>
     </row>
@@ -14386,7 +14430,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="85">
         <v>12.06</v>
       </c>
     </row>
@@ -14397,7 +14441,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="85">
         <v>8.89</v>
       </c>
     </row>
@@ -14408,7 +14452,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="85">
         <v>10.88</v>
       </c>
     </row>
@@ -14562,7 +14606,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="79">
+      <c r="D50" s="85">
         <v>-14.86</v>
       </c>
     </row>
@@ -14573,7 +14617,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="85">
         <v>11.3</v>
       </c>
     </row>
@@ -14584,7 +14628,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="79">
+      <c r="D52" s="85">
         <v>-9.92</v>
       </c>
     </row>
@@ -14595,7 +14639,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="79">
+      <c r="D53" s="85">
         <v>8.18</v>
       </c>
     </row>
@@ -14606,7 +14650,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="79">
+      <c r="D54" s="85">
         <v>-4.63</v>
       </c>
     </row>
@@ -14634,7 +14678,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -14664,31 +14708,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="69">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="90">
         <v>5.98</v>
       </c>
     </row>
@@ -14699,7 +14743,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>10.15</v>
       </c>
     </row>
@@ -14710,7 +14754,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>-11.75</v>
       </c>
     </row>
@@ -14721,7 +14765,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>16.39</v>
       </c>
     </row>
@@ -14732,7 +14776,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>-25.55</v>
       </c>
     </row>
@@ -14743,7 +14787,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>11.45</v>
       </c>
     </row>
@@ -14754,7 +14798,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>7.68</v>
       </c>
     </row>
@@ -14765,7 +14809,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>-8.57</v>
       </c>
     </row>
@@ -14776,7 +14820,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>-15.65</v>
       </c>
     </row>
@@ -14787,7 +14831,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>10.16</v>
       </c>
     </row>
@@ -14798,7 +14842,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>17.65</v>
       </c>
     </row>
@@ -14809,7 +14853,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>21.08</v>
       </c>
     </row>
@@ -14820,7 +14864,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>-13.14</v>
       </c>
     </row>
@@ -14831,7 +14875,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>-17.07</v>
       </c>
     </row>
@@ -14842,7 +14886,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>9.69</v>
       </c>
     </row>
@@ -14853,7 +14897,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>-7.94</v>
       </c>
     </row>
@@ -14864,7 +14908,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>9.42</v>
       </c>
     </row>
@@ -14875,7 +14919,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>21.99</v>
       </c>
     </row>
@@ -14886,7 +14930,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="85">
         <v>14.64</v>
       </c>
     </row>
@@ -14897,7 +14941,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="85">
         <v>8.1</v>
       </c>
     </row>
@@ -14906,23 +14950,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="79"/>
+      <c r="D29" s="85"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="79"/>
+      <c r="D30" s="85"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="87">
         <v>15.39</v>
       </c>
     </row>
@@ -15154,13 +15198,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="87">
         <v>35.86</v>
       </c>
     </row>
@@ -15189,7 +15233,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -15222,7 +15266,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="84">
         <v>11.57</v>
       </c>
     </row>
@@ -15233,7 +15277,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="84">
         <v>2.01</v>
       </c>
     </row>
@@ -15244,7 +15288,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="84">
         <v>7.37</v>
       </c>
     </row>
@@ -15255,7 +15299,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="84">
         <v>10.32</v>
       </c>
     </row>
@@ -15266,7 +15310,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="84">
         <v>8.22</v>
       </c>
     </row>
@@ -15277,7 +15321,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>-14.86</v>
       </c>
     </row>
@@ -15288,7 +15332,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>11.3</v>
       </c>
     </row>
@@ -15299,7 +15343,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>-9.92</v>
       </c>
     </row>
@@ -15310,7 +15354,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>8.18</v>
       </c>
     </row>
@@ -15321,7 +15365,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>-4.63</v>
       </c>
     </row>
@@ -15332,7 +15376,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>-13.93</v>
       </c>
     </row>
@@ -15343,7 +15387,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>8.68</v>
       </c>
     </row>
@@ -15354,7 +15398,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>8.19</v>
       </c>
     </row>
@@ -15365,7 +15409,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>11.79</v>
       </c>
     </row>
@@ -15376,7 +15420,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>7.63</v>
       </c>
     </row>
@@ -15387,7 +15431,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>11.12</v>
       </c>
     </row>
@@ -15398,7 +15442,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>-10.16</v>
       </c>
     </row>
@@ -15409,7 +15453,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>26.29</v>
       </c>
     </row>
@@ -15420,7 +15464,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>-6.01</v>
       </c>
     </row>
@@ -15431,7 +15475,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>7.72</v>
       </c>
     </row>
@@ -15442,7 +15486,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="85">
         <v>-8.29</v>
       </c>
     </row>
@@ -15453,7 +15497,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="85">
         <v>10.41</v>
       </c>
     </row>
@@ -15464,18 +15508,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="85">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="87">
         <v>30.41</v>
       </c>
     </row>
@@ -15504,7 +15548,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="77" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
@@ -15537,7 +15581,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="84">
         <v>9.93</v>
       </c>
     </row>
@@ -15548,7 +15592,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="84">
         <v>21.55</v>
       </c>
     </row>
@@ -15559,7 +15603,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="85">
         <v>-9.01</v>
       </c>
     </row>
@@ -15570,7 +15614,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="85">
         <v>12.66</v>
       </c>
     </row>
@@ -15581,7 +15625,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="85">
         <v>-12.17</v>
       </c>
     </row>
@@ -15592,7 +15636,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="85">
         <v>34.53</v>
       </c>
     </row>
@@ -15603,7 +15647,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="85">
         <v>8.89</v>
       </c>
     </row>
@@ -15614,7 +15658,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>32.33</v>
       </c>
     </row>
@@ -15625,7 +15669,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="85">
         <v>-17.71</v>
       </c>
     </row>
@@ -15636,7 +15680,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="85">
         <v>-15.53</v>
       </c>
     </row>
@@ -15647,7 +15691,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="85">
         <v>9.57</v>
       </c>
     </row>
@@ -15658,7 +15702,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="85">
         <v>-7.86</v>
       </c>
     </row>
@@ -15669,7 +15713,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="85">
         <v>6.81</v>
       </c>
     </row>
@@ -15680,7 +15724,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="85">
         <v>21.56</v>
       </c>
     </row>
@@ -15691,7 +15735,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="85">
         <v>-18.57</v>
       </c>
     </row>
@@ -15702,7 +15746,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="85">
         <v>12.33</v>
       </c>
     </row>
@@ -15713,7 +15757,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="85">
         <v>8.05</v>
       </c>
     </row>
@@ -15724,7 +15768,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="85">
         <v>-23.18</v>
       </c>
     </row>
@@ -15735,7 +15779,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="85">
         <v>-15.23</v>
       </c>
     </row>
@@ -15746,7 +15790,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="85">
         <v>20.29</v>
       </c>
     </row>
@@ -15755,16 +15799,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="79"/>
+      <c r="D26" s="85"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="87">
         <v>40.11</v>
       </c>
     </row>

--- a/天天利一号2018年10月收益表.xlsx
+++ b/天天利一号2018年10月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -121,14 +121,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25">
@@ -179,6 +179,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,27 +225,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -223,42 +255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,23 +286,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,31 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,25 +361,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,18 +445,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,31 +463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,13 +678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,21 +698,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,6 +717,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -743,25 +752,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,195 +795,195 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1073,13 +1073,13 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,31 +1088,16 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,22 +1109,28 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,7 +1139,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,37 +1160,37 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3248,19 +3239,34 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-8</c:v>
+                  <c:v>2018/10/8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-9</c:v>
+                  <c:v>2018/10/9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-10</c:v>
+                  <c:v>2018/10/10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-11</c:v>
+                  <c:v>2018/10/11</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-12</c:v>
+                  <c:v>2018/10/12</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/15</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/16</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/17</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/18</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/19</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3288,6 +3294,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3382,19 +3403,34 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-8</c:v>
+                  <c:v>2018/10/8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-9</c:v>
+                  <c:v>2018/10/9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-10</c:v>
+                  <c:v>2018/10/10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-11</c:v>
+                  <c:v>2018/10/11</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-12</c:v>
+                  <c:v>2018/10/12</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/15</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/16</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/17</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/18</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/19</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3422,6 +3458,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.020119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.022548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.017198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10784,8 +10835,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="2036445"/>
-        <a:ext cx="14596110" cy="7077075"/>
+        <a:off x="4695825" y="1990725"/>
+        <a:ext cx="16173450" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10819,8 +10870,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5538470" y="1360170"/>
-        <a:ext cx="9117965" cy="5017770"/>
+        <a:off x="6137910" y="1325880"/>
+        <a:ext cx="10141585" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10838,15 +10889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500380</xdr:colOff>
+      <xdr:colOff>509905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>334645</xdr:rowOff>
+      <xdr:rowOff>325120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>401955</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>208915</xdr:rowOff>
+      <xdr:rowOff>199390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10854,8 +10905,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6955790" y="883285"/>
-        <a:ext cx="9711690" cy="4183380"/>
+        <a:off x="7682865" y="839470"/>
+        <a:ext cx="10801985" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10889,8 +10940,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="4359910"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="4337050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10924,8 +10975,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="344805"/>
-        <a:ext cx="8574405" cy="5372100"/>
+        <a:off x="5414010" y="333375"/>
+        <a:ext cx="9598660" cy="5257800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10959,8 +11010,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5071745" y="365760"/>
-        <a:ext cx="9237345" cy="6006465"/>
+        <a:off x="5534025" y="342900"/>
+        <a:ext cx="10334625" cy="5857875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10994,8 +11045,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="1424940"/>
-        <a:ext cx="9305925" cy="5915025"/>
+        <a:off x="4695825" y="1390650"/>
+        <a:ext cx="10334625" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11029,8 +11080,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4881880" y="1034415"/>
-        <a:ext cx="8715375" cy="5781675"/>
+        <a:off x="5344160" y="1000125"/>
+        <a:ext cx="9744075" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11064,8 +11115,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4248785" y="1050925"/>
-        <a:ext cx="9290050" cy="5894705"/>
+        <a:off x="4711065" y="1016635"/>
+        <a:ext cx="10314305" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11099,8 +11150,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4513580" y="1105535"/>
-        <a:ext cx="9031605" cy="5894705"/>
+        <a:off x="4975860" y="1071245"/>
+        <a:ext cx="10055860" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11134,8 +11185,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="5129530"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="5118100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11169,8 +11220,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4323080" y="1217295"/>
-        <a:ext cx="9116695" cy="5461000"/>
+        <a:off x="4785360" y="1183005"/>
+        <a:ext cx="10140950" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11204,8 +11255,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="1312545"/>
-        <a:ext cx="9049385" cy="5417185"/>
+        <a:off x="5414010" y="1278255"/>
+        <a:ext cx="10141585" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11511,12 +11562,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="91" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="88" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11533,167 +11584,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="92">
+      <c r="B6" s="89">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="82">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="92">
+      <c r="B7" s="89">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="92">
+      <c r="B8" s="89">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="92">
+      <c r="B9" s="89">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="92">
+      <c r="B10" s="89">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="92">
+      <c r="B11" s="89">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="92">
+      <c r="B12" s="89">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="92">
+      <c r="B13" s="89">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="92">
+      <c r="B14" s="89">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="92">
+      <c r="B15" s="89">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="92">
+      <c r="B16" s="89">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="92">
+      <c r="B17" s="89">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="92">
+      <c r="B18" s="89">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="92">
+      <c r="B19" s="89">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="92">
+      <c r="B20" s="89">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>-69.1</v>
       </c>
     </row>
@@ -11704,7 +11755,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>23</v>
       </c>
     </row>
@@ -11715,7 +11766,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>176.66</v>
       </c>
     </row>
@@ -11726,7 +11777,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>158</v>
       </c>
     </row>
@@ -11737,7 +11788,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>22.33</v>
       </c>
     </row>
@@ -11748,7 +11799,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>94.67</v>
       </c>
     </row>
@@ -11759,7 +11810,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>60</v>
       </c>
     </row>
@@ -11770,7 +11821,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="82">
         <v>67.46</v>
       </c>
     </row>
@@ -11781,7 +11832,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="82">
         <v>76.4</v>
       </c>
     </row>
@@ -11792,7 +11843,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="82">
         <v>60.66</v>
       </c>
     </row>
@@ -11803,7 +11854,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="82">
         <v>-108.47</v>
       </c>
     </row>
@@ -11814,7 +11865,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="82">
         <v>49.4</v>
       </c>
     </row>
@@ -11825,7 +11876,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="82">
         <v>69.73</v>
       </c>
     </row>
@@ -11836,7 +11887,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="85">
+      <c r="D33" s="82">
         <v>59.26</v>
       </c>
     </row>
@@ -11847,7 +11898,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="82">
         <v>36.66</v>
       </c>
     </row>
@@ -11858,7 +11909,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="85">
+      <c r="D35" s="82">
         <v>69.33</v>
       </c>
     </row>
@@ -11866,10 +11917,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="64">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36" s="87">
         <v>26.4</v>
       </c>
     </row>
@@ -11880,7 +11931,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="85">
+      <c r="D37" s="82">
         <v>50</v>
       </c>
     </row>
@@ -11891,7 +11942,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="82">
         <v>51.66</v>
       </c>
     </row>
@@ -11902,7 +11953,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="85">
+      <c r="D39" s="82">
         <v>-61.25</v>
       </c>
     </row>
@@ -11913,7 +11964,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="82">
         <v>40.75</v>
       </c>
     </row>
@@ -11924,7 +11975,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="85">
+      <c r="D41" s="82">
         <v>41.25</v>
       </c>
     </row>
@@ -11935,7 +11986,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="85">
+      <c r="D42" s="82">
         <v>68.19</v>
       </c>
     </row>
@@ -11946,7 +11997,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="85">
+      <c r="D43" s="82">
         <v>-51.55</v>
       </c>
     </row>
@@ -11957,7 +12008,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="85">
+      <c r="D44" s="82">
         <v>-31.38</v>
       </c>
     </row>
@@ -11968,7 +12019,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="85">
+      <c r="D45" s="82">
         <v>47.74</v>
       </c>
     </row>
@@ -11979,7 +12030,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="85">
+      <c r="D46" s="82">
         <v>22.04</v>
       </c>
     </row>
@@ -11990,7 +12041,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="85">
+      <c r="D47" s="82">
         <v>33.29</v>
       </c>
     </row>
@@ -12001,7 +12052,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="85">
+      <c r="D48" s="82">
         <v>-37.95</v>
       </c>
     </row>
@@ -12012,7 +12063,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="85">
+      <c r="D49" s="82">
         <v>-27.51</v>
       </c>
     </row>
@@ -12023,7 +12074,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="85">
+      <c r="D50" s="82">
         <v>37.62</v>
       </c>
     </row>
@@ -12034,7 +12085,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="85">
+      <c r="D51" s="82">
         <v>20.56</v>
       </c>
     </row>
@@ -12045,7 +12096,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="85">
+      <c r="D52" s="82">
         <v>31.97</v>
       </c>
     </row>
@@ -12056,7 +12107,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="85">
+      <c r="D53" s="82">
         <v>21.43</v>
       </c>
     </row>
@@ -12067,7 +12118,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="85">
+      <c r="D54" s="82">
         <v>25.85</v>
       </c>
     </row>
@@ -12078,7 +12129,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="85">
+      <c r="D55" s="82">
         <v>-9.47</v>
       </c>
     </row>
@@ -12101,16 +12152,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12137,14 +12188,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="84"/>
+      <c r="D6" s="81"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="84"/>
+      <c r="D7" s="81"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12153,7 +12204,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>11.13</v>
       </c>
     </row>
@@ -12164,7 +12215,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>-9.71</v>
       </c>
     </row>
@@ -12175,7 +12226,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>-12.26</v>
       </c>
     </row>
@@ -12186,7 +12237,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>8.6</v>
       </c>
     </row>
@@ -12197,7 +12248,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>6.16</v>
       </c>
     </row>
@@ -12208,7 +12259,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>7.19</v>
       </c>
     </row>
@@ -12219,7 +12270,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>25.24</v>
       </c>
     </row>
@@ -12230,7 +12281,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>33.1</v>
       </c>
     </row>
@@ -12241,7 +12292,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>-13.26</v>
       </c>
     </row>
@@ -12252,7 +12303,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>8.71</v>
       </c>
     </row>
@@ -12263,7 +12314,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>6.02</v>
       </c>
     </row>
@@ -12274,7 +12325,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>15.17</v>
       </c>
     </row>
@@ -12285,7 +12336,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>-24.9</v>
       </c>
     </row>
@@ -12296,7 +12347,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>5.59</v>
       </c>
     </row>
@@ -12307,7 +12358,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>9.46</v>
       </c>
     </row>
@@ -12318,7 +12369,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>-2.89</v>
       </c>
     </row>
@@ -12329,7 +12380,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>-7.94</v>
       </c>
     </row>
@@ -12340,7 +12391,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>-11.84</v>
       </c>
     </row>
@@ -12351,7 +12402,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>5.15</v>
       </c>
     </row>
@@ -12362,7 +12413,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="82">
         <v>9.25</v>
       </c>
     </row>
@@ -12373,7 +12424,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="82">
         <v>-13.74</v>
       </c>
     </row>
@@ -12396,22 +12447,22 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6666666666667" style="44" customWidth="1"/>
     <col min="9" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12555,130 +12606,195 @@
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B11" s="34"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="34">
+        <v>43388</v>
+      </c>
+      <c r="C11" s="53">
+        <f>$E11*$H$3+$D10</f>
+        <v>0.022548</v>
+      </c>
+      <c r="D11" s="54">
+        <f>$E11*$H$3+$D10</f>
+        <v>0.022548</v>
+      </c>
+      <c r="E11" s="55">
+        <f>IF(F11&gt;0,$F11*$G$3,IF(F11&lt;0,F11))</f>
+        <v>2.429</v>
+      </c>
+      <c r="F11" s="56">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B12" s="34"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="34">
+        <v>43389</v>
+      </c>
+      <c r="C12" s="53">
+        <f>$E12*$H$3+$D11</f>
+        <v>0.017198</v>
+      </c>
+      <c r="D12" s="54">
+        <f>$E12*$H$3+$D11</f>
+        <v>0.017198</v>
+      </c>
+      <c r="E12" s="55">
+        <f>IF(F12&gt;0,$F12*$G$3,IF(F12&lt;0,F12))</f>
+        <v>-5.35</v>
+      </c>
+      <c r="F12" s="57">
+        <v>-5.35</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B13" s="34"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="34">
+        <v>43390</v>
+      </c>
+      <c r="C13" s="53">
+        <f>$E13*$H$3+$D12</f>
+        <v>0.022</v>
+      </c>
+      <c r="D13" s="54">
+        <f>$E13*$H$3+$D12</f>
+        <v>0.022</v>
+      </c>
+      <c r="E13" s="55">
+        <f>IF(F13&gt;0,$F13*$G$3,IF(F13&lt;0,F13))</f>
+        <v>4.802</v>
+      </c>
+      <c r="F13" s="52">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B14" s="34"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="B14" s="34">
+        <v>43391</v>
+      </c>
+      <c r="C14" s="53">
+        <f>$E14*$H$3+$D13</f>
+        <v>0.00892</v>
+      </c>
+      <c r="D14" s="54">
+        <f>$E14*$H$3+$D13</f>
+        <v>0.00892</v>
+      </c>
+      <c r="E14" s="55">
+        <f>IF(F14&gt;0,$F14*$G$3,IF(F14&lt;0,F14))</f>
+        <v>-13.08</v>
+      </c>
+      <c r="F14" s="58">
+        <v>-13.08</v>
+      </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B15" s="34"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="34">
+        <v>43392</v>
+      </c>
+      <c r="C15" s="53">
+        <f>$E15*$H$3+$D14</f>
+        <v>0.00284</v>
+      </c>
+      <c r="D15" s="54">
+        <f>$E15*$H$3+$D14</f>
+        <v>0.00284</v>
+      </c>
+      <c r="E15" s="55">
+        <f>IF(F15&gt;0,$F15*$G$3,IF(F15&lt;0,F15))</f>
+        <v>-6.08</v>
+      </c>
+      <c r="F15" s="59">
+        <v>-6.08</v>
+      </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:6">
       <c r="B16" s="34"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:6">
       <c r="B17" s="34"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="55"/>
-      <c r="F17" s="63"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
       <c r="B18" s="34"/>
       <c r="C18" s="38"/>
       <c r="D18" s="51"/>
       <c r="E18" s="55"/>
-      <c r="F18" s="63"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
       <c r="B19" s="34"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
       <c r="B20" s="34"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
       <c r="C21" s="53"/>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
-      <c r="F21" s="73"/>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
       <c r="C24" s="10"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="77"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="77"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="61"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="77"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="38"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="77"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="38"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="82"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="79"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
@@ -12686,8 +12802,8 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="51"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="64"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12711,16 +12827,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12971,10 +13087,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13222,16 +13338,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13355,12 +13471,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="91" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="88" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13384,79 +13500,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="92">
+      <c r="B6" s="89">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="82">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="92">
+      <c r="B7" s="89">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="92">
+      <c r="B8" s="89">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="92">
+      <c r="B9" s="89">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="92">
+      <c r="B10" s="89">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="93">
+      <c r="B11" s="90">
         <v>42307</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="64">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="87">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="84">
         <v>146.3</v>
       </c>
     </row>
@@ -13481,12 +13597,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="91" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="88" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13510,108 +13626,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="92">
+      <c r="B6" s="89">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="92">
+      <c r="B7" s="89">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="92">
+      <c r="B8" s="89">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="92">
+      <c r="B9" s="89">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="92">
+      <c r="B10" s="89">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="92">
+      <c r="B11" s="89">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="92">
+      <c r="B12" s="89">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="92">
+      <c r="B13" s="89">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="92">
+      <c r="B14" s="89">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="92">
+      <c r="B15" s="89">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>-69.1</v>
       </c>
     </row>
@@ -13622,7 +13738,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>23</v>
       </c>
     </row>
@@ -13633,7 +13749,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>176.66</v>
       </c>
     </row>
@@ -13644,7 +13760,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>158</v>
       </c>
     </row>
@@ -13655,7 +13771,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>22.33</v>
       </c>
     </row>
@@ -13666,7 +13782,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>94.67</v>
       </c>
     </row>
@@ -13677,7 +13793,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>60</v>
       </c>
     </row>
@@ -13688,7 +13804,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>67.46</v>
       </c>
     </row>
@@ -13699,7 +13815,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>76.4</v>
       </c>
     </row>
@@ -13710,7 +13826,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>60.66</v>
       </c>
     </row>
@@ -13721,7 +13837,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>-108.47</v>
       </c>
     </row>
@@ -13732,7 +13848,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -13747,10 +13863,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="64">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="87">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -13758,13 +13874,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="84">
         <v>657.37</v>
       </c>
     </row>
@@ -13788,15 +13904,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13825,7 +13941,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="82">
         <v>59.26</v>
       </c>
     </row>
@@ -13836,7 +13952,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <v>36.66</v>
       </c>
     </row>
@@ -13847,7 +13963,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>69.33</v>
       </c>
     </row>
@@ -13855,10 +13971,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="64">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="87">
         <v>26.4</v>
       </c>
     </row>
@@ -13869,7 +13985,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>50</v>
       </c>
     </row>
@@ -13880,7 +13996,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>51.66</v>
       </c>
     </row>
@@ -13891,7 +14007,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>-61.25</v>
       </c>
     </row>
@@ -13902,7 +14018,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>40.75</v>
       </c>
     </row>
@@ -13913,7 +14029,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>41.25</v>
       </c>
     </row>
@@ -13924,7 +14040,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>68.19</v>
       </c>
     </row>
@@ -13935,7 +14051,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>-51.55</v>
       </c>
     </row>
@@ -13946,7 +14062,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>-31.38</v>
       </c>
     </row>
@@ -13957,7 +14073,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>47.74</v>
       </c>
     </row>
@@ -13968,7 +14084,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>22.04</v>
       </c>
     </row>
@@ -13979,7 +14095,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>33.29</v>
       </c>
     </row>
@@ -13990,7 +14106,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>-37.95</v>
       </c>
     </row>
@@ -14001,7 +14117,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>-27.51</v>
       </c>
     </row>
@@ -14012,7 +14128,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>37.62</v>
       </c>
     </row>
@@ -14023,7 +14139,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>20.56</v>
       </c>
     </row>
@@ -14034,7 +14150,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>31.97</v>
       </c>
     </row>
@@ -14045,7 +14161,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>21.43</v>
       </c>
     </row>
@@ -14056,7 +14172,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="82">
         <v>25.85</v>
       </c>
     </row>
@@ -14067,18 +14183,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="82">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="84">
         <v>259.69</v>
       </c>
     </row>
@@ -14102,16 +14218,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14131,31 +14247,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="64">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="87">
         <v>5.98</v>
       </c>
     </row>
@@ -14166,7 +14282,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>10.15</v>
       </c>
     </row>
@@ -14177,7 +14293,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>-11.75</v>
       </c>
     </row>
@@ -14188,7 +14304,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>16.39</v>
       </c>
     </row>
@@ -14199,7 +14315,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>-25.55</v>
       </c>
     </row>
@@ -14210,7 +14326,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>11.45</v>
       </c>
     </row>
@@ -14221,7 +14337,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>7.68</v>
       </c>
     </row>
@@ -14232,7 +14348,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>-8.57</v>
       </c>
     </row>
@@ -14243,7 +14359,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>-15.65</v>
       </c>
     </row>
@@ -14254,7 +14370,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>10.16</v>
       </c>
     </row>
@@ -14265,7 +14381,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>17.65</v>
       </c>
     </row>
@@ -14276,7 +14392,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>21.08</v>
       </c>
     </row>
@@ -14287,7 +14403,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>-13.14</v>
       </c>
     </row>
@@ -14298,7 +14414,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>-17.07</v>
       </c>
     </row>
@@ -14309,7 +14425,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>9.69</v>
       </c>
     </row>
@@ -14320,7 +14436,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>-7.94</v>
       </c>
     </row>
@@ -14331,7 +14447,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>9.42</v>
       </c>
     </row>
@@ -14342,7 +14458,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>21.99</v>
       </c>
     </row>
@@ -14353,7 +14469,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="82">
         <v>14.64</v>
       </c>
     </row>
@@ -14364,7 +14480,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="82">
         <v>8.1</v>
       </c>
     </row>
@@ -14375,7 +14491,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="81">
         <v>-8.61</v>
       </c>
     </row>
@@ -14386,7 +14502,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="81">
         <v>11.67</v>
       </c>
     </row>
@@ -14397,7 +14513,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="81">
         <v>10.26</v>
       </c>
     </row>
@@ -14408,7 +14524,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="81">
         <v>11.04</v>
       </c>
     </row>
@@ -14419,7 +14535,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="81">
         <v>13.18</v>
       </c>
     </row>
@@ -14430,7 +14546,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="82">
         <v>12.06</v>
       </c>
     </row>
@@ -14441,7 +14557,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="85">
+      <c r="D35" s="82">
         <v>8.89</v>
       </c>
     </row>
@@ -14452,7 +14568,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="82">
         <v>10.88</v>
       </c>
     </row>
@@ -14511,7 +14627,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="2:4">
+    <row r="42" ht="14.25" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14606,7 +14722,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="85">
+      <c r="D50" s="82">
         <v>-14.86</v>
       </c>
     </row>
@@ -14617,7 +14733,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="85">
+      <c r="D51" s="82">
         <v>11.3</v>
       </c>
     </row>
@@ -14628,7 +14744,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="85">
+      <c r="D52" s="82">
         <v>-9.92</v>
       </c>
     </row>
@@ -14639,7 +14755,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="85">
+      <c r="D53" s="82">
         <v>8.18</v>
       </c>
     </row>
@@ -14650,7 +14766,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="85">
+      <c r="D54" s="82">
         <v>-4.63</v>
       </c>
     </row>
@@ -14673,16 +14789,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14708,31 +14824,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="64">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="87">
         <v>5.98</v>
       </c>
     </row>
@@ -14743,7 +14859,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>10.15</v>
       </c>
     </row>
@@ -14754,7 +14870,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>-11.75</v>
       </c>
     </row>
@@ -14765,7 +14881,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>16.39</v>
       </c>
     </row>
@@ -14776,7 +14892,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>-25.55</v>
       </c>
     </row>
@@ -14787,7 +14903,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>11.45</v>
       </c>
     </row>
@@ -14798,7 +14914,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>7.68</v>
       </c>
     </row>
@@ -14809,7 +14925,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>-8.57</v>
       </c>
     </row>
@@ -14820,7 +14936,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>-15.65</v>
       </c>
     </row>
@@ -14831,7 +14947,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>10.16</v>
       </c>
     </row>
@@ -14842,7 +14958,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>17.65</v>
       </c>
     </row>
@@ -14853,7 +14969,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>21.08</v>
       </c>
     </row>
@@ -14864,7 +14980,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>-13.14</v>
       </c>
     </row>
@@ -14875,7 +14991,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>-17.07</v>
       </c>
     </row>
@@ -14886,7 +15002,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>9.69</v>
       </c>
     </row>
@@ -14897,7 +15013,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>-7.94</v>
       </c>
     </row>
@@ -14908,7 +15024,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>9.42</v>
       </c>
     </row>
@@ -14919,7 +15035,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>21.99</v>
       </c>
     </row>
@@ -14930,7 +15046,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="82">
         <v>14.64</v>
       </c>
     </row>
@@ -14941,7 +15057,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="82">
         <v>8.1</v>
       </c>
     </row>
@@ -14950,23 +15066,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="85"/>
+      <c r="D29" s="82"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="85"/>
+      <c r="D30" s="82"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="84">
         <v>15.39</v>
       </c>
     </row>
@@ -14990,16 +15106,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15198,13 +15314,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="84">
         <v>35.86</v>
       </c>
     </row>
@@ -15228,16 +15344,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15266,7 +15382,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="81">
         <v>11.57</v>
       </c>
     </row>
@@ -15277,7 +15393,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="81">
         <v>2.01</v>
       </c>
     </row>
@@ -15288,7 +15404,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="81">
         <v>7.37</v>
       </c>
     </row>
@@ -15299,7 +15415,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="81">
         <v>10.32</v>
       </c>
     </row>
@@ -15310,7 +15426,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="81">
         <v>8.22</v>
       </c>
     </row>
@@ -15321,7 +15437,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>-14.86</v>
       </c>
     </row>
@@ -15332,7 +15448,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>11.3</v>
       </c>
     </row>
@@ -15343,7 +15459,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>-9.92</v>
       </c>
     </row>
@@ -15354,7 +15470,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>8.18</v>
       </c>
     </row>
@@ -15365,7 +15481,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>-4.63</v>
       </c>
     </row>
@@ -15376,7 +15492,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>-13.93</v>
       </c>
     </row>
@@ -15387,7 +15503,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>8.68</v>
       </c>
     </row>
@@ -15398,7 +15514,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>8.19</v>
       </c>
     </row>
@@ -15409,7 +15525,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>11.79</v>
       </c>
     </row>
@@ -15420,7 +15536,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>7.63</v>
       </c>
     </row>
@@ -15431,7 +15547,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>11.12</v>
       </c>
     </row>
@@ -15442,7 +15558,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>-10.16</v>
       </c>
     </row>
@@ -15453,7 +15569,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>26.29</v>
       </c>
     </row>
@@ -15464,7 +15580,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>-6.01</v>
       </c>
     </row>
@@ -15475,7 +15591,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>7.72</v>
       </c>
     </row>
@@ -15486,7 +15602,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="82">
         <v>-8.29</v>
       </c>
     </row>
@@ -15497,7 +15613,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="82">
         <v>10.41</v>
       </c>
     </row>
@@ -15508,18 +15624,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="82">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="84">
         <v>30.41</v>
       </c>
     </row>
@@ -15543,16 +15659,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15581,7 +15697,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="81">
         <v>9.93</v>
       </c>
     </row>
@@ -15592,7 +15708,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="81">
         <v>21.55</v>
       </c>
     </row>
@@ -15603,7 +15719,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>-9.01</v>
       </c>
     </row>
@@ -15614,7 +15730,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>12.66</v>
       </c>
     </row>
@@ -15625,7 +15741,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>-12.17</v>
       </c>
     </row>
@@ -15636,7 +15752,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>34.53</v>
       </c>
     </row>
@@ -15647,7 +15763,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="82">
         <v>8.89</v>
       </c>
     </row>
@@ -15658,7 +15774,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="82">
         <v>32.33</v>
       </c>
     </row>
@@ -15669,7 +15785,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="82">
         <v>-17.71</v>
       </c>
     </row>
@@ -15680,7 +15796,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="82">
         <v>-15.53</v>
       </c>
     </row>
@@ -15691,7 +15807,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="82">
         <v>9.57</v>
       </c>
     </row>
@@ -15702,7 +15818,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>-7.86</v>
       </c>
     </row>
@@ -15713,7 +15829,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="82">
         <v>6.81</v>
       </c>
     </row>
@@ -15724,7 +15840,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="82">
         <v>21.56</v>
       </c>
     </row>
@@ -15735,7 +15851,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="82">
         <v>-18.57</v>
       </c>
     </row>
@@ -15746,7 +15862,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="82">
         <v>12.33</v>
       </c>
     </row>
@@ -15757,7 +15873,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="82">
         <v>8.05</v>
       </c>
     </row>
@@ -15768,7 +15884,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>-23.18</v>
       </c>
     </row>
@@ -15779,7 +15895,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="82">
         <v>-15.23</v>
       </c>
     </row>
@@ -15790,7 +15906,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="82">
         <v>20.29</v>
       </c>
     </row>
@@ -15799,16 +15915,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="85"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="84">
         <v>40.11</v>
       </c>
     </row>

--- a/天天利一号2018年10月收益表.xlsx
+++ b/天天利一号2018年10月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="23040" windowHeight="9444" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -180,6 +180,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,29 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -338,6 +338,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,36 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +678,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -689,15 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,21 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,18 +1106,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,6 +1125,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3239,34 +3233,40 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/8</c:v>
+                  <c:v>2018-10-8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/9</c:v>
+                  <c:v>2018-10-9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/10</c:v>
+                  <c:v>2018-10-10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/11</c:v>
+                  <c:v>2018-10-11</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/12</c:v>
+                  <c:v>2018-10-12</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/15</c:v>
+                  <c:v>2018-10-15</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/16</c:v>
+                  <c:v>2018-10-16</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/17</c:v>
+                  <c:v>2018-10-17</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/18</c:v>
+                  <c:v>2018-10-18</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/19</c:v>
+                  <c:v>2018-10-19</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>2018-10-22</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>2018-10-23</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3309,6 +3309,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-6.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3403,34 +3409,40 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/8</c:v>
+                  <c:v>2018-10-8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/9</c:v>
+                  <c:v>2018-10-9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/10</c:v>
+                  <c:v>2018-10-10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/11</c:v>
+                  <c:v>2018-10-11</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/12</c:v>
+                  <c:v>2018-10-12</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/15</c:v>
+                  <c:v>2018-10-15</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/16</c:v>
+                  <c:v>2018-10-16</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/17</c:v>
+                  <c:v>2018-10-17</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/18</c:v>
+                  <c:v>2018-10-18</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018/10/19</c:v>
+                  <c:v>2018-10-19</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>2018-10-22</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>2018-10-23</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3473,6 +3485,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.00284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10835,8 +10853,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695825" y="1990725"/>
-        <a:ext cx="16173450" cy="7077075"/>
+        <a:off x="4233545" y="2036445"/>
+        <a:ext cx="14596110" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10870,8 +10888,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6137910" y="1325880"/>
-        <a:ext cx="10141585" cy="5017770"/>
+        <a:off x="5538470" y="1360170"/>
+        <a:ext cx="9117965" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10891,13 +10909,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>509905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>325120</xdr:rowOff>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>199390</xdr:rowOff>
+      <xdr:rowOff>191770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10905,8 +10923,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7682865" y="839470"/>
-        <a:ext cx="10801985" cy="4183380"/>
+        <a:off x="6965315" y="866140"/>
+        <a:ext cx="9711690" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10940,8 +10958,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100320" y="433705"/>
-        <a:ext cx="10055225" cy="4337050"/>
+        <a:off x="4638040" y="456565"/>
+        <a:ext cx="9030970" cy="4359910"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10975,8 +10993,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5414010" y="333375"/>
-        <a:ext cx="9598660" cy="5257800"/>
+        <a:off x="4951730" y="344805"/>
+        <a:ext cx="8574405" cy="5372100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11010,8 +11028,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5534025" y="342900"/>
-        <a:ext cx="10334625" cy="5857875"/>
+        <a:off x="5071745" y="365760"/>
+        <a:ext cx="9237345" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11045,8 +11063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695825" y="1390650"/>
-        <a:ext cx="10334625" cy="5915025"/>
+        <a:off x="4233545" y="1424940"/>
+        <a:ext cx="9305925" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11080,8 +11098,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5344160" y="1000125"/>
-        <a:ext cx="9744075" cy="5781675"/>
+        <a:off x="4881880" y="1034415"/>
+        <a:ext cx="8715375" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11115,8 +11133,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4711065" y="1016635"/>
-        <a:ext cx="10314305" cy="5894705"/>
+        <a:off x="4248785" y="1050925"/>
+        <a:ext cx="9290050" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11150,8 +11168,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4975860" y="1071245"/>
-        <a:ext cx="10055860" cy="5894705"/>
+        <a:off x="4513580" y="1105535"/>
+        <a:ext cx="9031605" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11185,8 +11203,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100320" y="433705"/>
-        <a:ext cx="10055225" cy="5118100"/>
+        <a:off x="4638040" y="456565"/>
+        <a:ext cx="9030970" cy="5129530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11220,8 +11238,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4785360" y="1183005"/>
-        <a:ext cx="10140950" cy="5461000"/>
+        <a:off x="4323080" y="1217295"/>
+        <a:ext cx="9116695" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11255,8 +11273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5414010" y="1278255"/>
-        <a:ext cx="10141585" cy="5417185"/>
+        <a:off x="4951730" y="1312545"/>
+        <a:ext cx="9049385" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11562,12 +11580,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="88" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="86" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11584,167 +11602,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="89">
+      <c r="B6" s="87">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="89">
+      <c r="B7" s="87">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="89">
+      <c r="B8" s="87">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="89">
+      <c r="B9" s="87">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="89">
+      <c r="B10" s="87">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="89">
+      <c r="B11" s="87">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="89">
+      <c r="B12" s="87">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="89">
+      <c r="B13" s="87">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="89">
+      <c r="B14" s="87">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="89">
+      <c r="B15" s="87">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="89">
+      <c r="B16" s="87">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="89">
+      <c r="B17" s="87">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="89">
+      <c r="B18" s="87">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="89">
+      <c r="B19" s="87">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="89">
+      <c r="B20" s="87">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>-69.1</v>
       </c>
     </row>
@@ -11755,7 +11773,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>23</v>
       </c>
     </row>
@@ -11766,7 +11784,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>176.66</v>
       </c>
     </row>
@@ -11777,7 +11795,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>158</v>
       </c>
     </row>
@@ -11788,7 +11806,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>22.33</v>
       </c>
     </row>
@@ -11799,7 +11817,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>94.67</v>
       </c>
     </row>
@@ -11810,7 +11828,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>60</v>
       </c>
     </row>
@@ -11821,7 +11839,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>67.46</v>
       </c>
     </row>
@@ -11832,7 +11850,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>76.4</v>
       </c>
     </row>
@@ -11843,7 +11861,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="80">
         <v>60.66</v>
       </c>
     </row>
@@ -11854,7 +11872,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="80">
         <v>-108.47</v>
       </c>
     </row>
@@ -11865,7 +11883,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="80">
         <v>49.4</v>
       </c>
     </row>
@@ -11876,7 +11894,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="80">
         <v>69.73</v>
       </c>
     </row>
@@ -11887,7 +11905,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="80">
         <v>59.26</v>
       </c>
     </row>
@@ -11898,7 +11916,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="80">
         <v>36.66</v>
       </c>
     </row>
@@ -11909,7 +11927,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="80">
         <v>69.33</v>
       </c>
     </row>
@@ -11917,10 +11935,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="60">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="85">
         <v>26.4</v>
       </c>
     </row>
@@ -11931,7 +11949,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="80">
         <v>50</v>
       </c>
     </row>
@@ -11942,7 +11960,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="80">
         <v>51.66</v>
       </c>
     </row>
@@ -11953,7 +11971,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="82">
+      <c r="D39" s="80">
         <v>-61.25</v>
       </c>
     </row>
@@ -11964,7 +11982,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="82">
+      <c r="D40" s="80">
         <v>40.75</v>
       </c>
     </row>
@@ -11975,7 +11993,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="82">
+      <c r="D41" s="80">
         <v>41.25</v>
       </c>
     </row>
@@ -11986,7 +12004,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="82">
+      <c r="D42" s="80">
         <v>68.19</v>
       </c>
     </row>
@@ -11997,7 +12015,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="82">
+      <c r="D43" s="80">
         <v>-51.55</v>
       </c>
     </row>
@@ -12008,7 +12026,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="82">
+      <c r="D44" s="80">
         <v>-31.38</v>
       </c>
     </row>
@@ -12019,7 +12037,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="82">
+      <c r="D45" s="80">
         <v>47.74</v>
       </c>
     </row>
@@ -12030,7 +12048,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="82">
+      <c r="D46" s="80">
         <v>22.04</v>
       </c>
     </row>
@@ -12041,7 +12059,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="82">
+      <c r="D47" s="80">
         <v>33.29</v>
       </c>
     </row>
@@ -12052,7 +12070,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="80">
         <v>-37.95</v>
       </c>
     </row>
@@ -12063,7 +12081,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="82">
+      <c r="D49" s="80">
         <v>-27.51</v>
       </c>
     </row>
@@ -12074,7 +12092,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="82">
+      <c r="D50" s="80">
         <v>37.62</v>
       </c>
     </row>
@@ -12085,7 +12103,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="82">
+      <c r="D51" s="80">
         <v>20.56</v>
       </c>
     </row>
@@ -12096,7 +12114,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="82">
+      <c r="D52" s="80">
         <v>31.97</v>
       </c>
     </row>
@@ -12107,7 +12125,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="82">
+      <c r="D53" s="80">
         <v>21.43</v>
       </c>
     </row>
@@ -12118,7 +12136,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="82">
+      <c r="D54" s="80">
         <v>25.85</v>
       </c>
     </row>
@@ -12129,7 +12147,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="82">
+      <c r="D55" s="80">
         <v>-9.47</v>
       </c>
     </row>
@@ -12152,16 +12170,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12188,14 +12206,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="81"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="81"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12204,7 +12222,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>11.13</v>
       </c>
     </row>
@@ -12215,7 +12233,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>-9.71</v>
       </c>
     </row>
@@ -12226,7 +12244,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>-12.26</v>
       </c>
     </row>
@@ -12237,7 +12255,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>8.6</v>
       </c>
     </row>
@@ -12248,7 +12266,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>6.16</v>
       </c>
     </row>
@@ -12259,7 +12277,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>7.19</v>
       </c>
     </row>
@@ -12270,7 +12288,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>25.24</v>
       </c>
     </row>
@@ -12281,7 +12299,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>33.1</v>
       </c>
     </row>
@@ -12292,7 +12310,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>-13.26</v>
       </c>
     </row>
@@ -12303,7 +12321,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>8.71</v>
       </c>
     </row>
@@ -12314,7 +12332,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>6.02</v>
       </c>
     </row>
@@ -12325,7 +12343,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>15.17</v>
       </c>
     </row>
@@ -12336,7 +12354,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>-24.9</v>
       </c>
     </row>
@@ -12347,7 +12365,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>5.59</v>
       </c>
     </row>
@@ -12358,7 +12376,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>9.46</v>
       </c>
     </row>
@@ -12369,7 +12387,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>-2.89</v>
       </c>
     </row>
@@ -12380,7 +12398,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>-7.94</v>
       </c>
     </row>
@@ -12391,7 +12409,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>-11.84</v>
       </c>
     </row>
@@ -12402,7 +12420,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>5.15</v>
       </c>
     </row>
@@ -12413,7 +12431,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>9.25</v>
       </c>
     </row>
@@ -12424,7 +12442,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>-13.74</v>
       </c>
     </row>
@@ -12447,22 +12465,22 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6666666666667" style="44" customWidth="1"/>
     <col min="9" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12706,18 +12724,44 @@
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B16" s="34"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="59"/>
+      <c r="B16" s="34">
+        <v>43395</v>
+      </c>
+      <c r="C16" s="53">
+        <f>$E16*$H$3+$D15</f>
+        <v>0.01075</v>
+      </c>
+      <c r="D16" s="54">
+        <f>$E16*$H$3+$D15</f>
+        <v>0.01075</v>
+      </c>
+      <c r="E16" s="55">
+        <f>IF(F16&gt;0,$F16*$G$3,IF(F16&lt;0,F16))</f>
+        <v>7.91</v>
+      </c>
+      <c r="F16" s="59">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B17" s="34"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="34">
+        <v>43396</v>
+      </c>
+      <c r="C17" s="53">
+        <f>$E17*$H$3+$D16</f>
+        <v>0.00379</v>
+      </c>
+      <c r="D17" s="54">
+        <f>$E17*$H$3+$D16</f>
+        <v>0.00379</v>
+      </c>
+      <c r="E17" s="55">
+        <f>IF(F17&gt;0,$F17*$G$3,IF(F17&lt;0,F17))</f>
+        <v>-6.96</v>
+      </c>
+      <c r="F17" s="58">
+        <v>-6.96</v>
+      </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
       <c r="B18" s="34"/>
@@ -12728,73 +12772,73 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
       <c r="B19" s="34"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="58"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
       <c r="B20" s="34"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
       <c r="C21" s="53"/>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
-      <c r="F21" s="70"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
       <c r="C24" s="10"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="74"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="74"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="57"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="74"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="38"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="74"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="38"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="79"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="77"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
@@ -12802,7 +12846,7 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="51"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="59"/>
     </row>
   </sheetData>
@@ -12827,16 +12871,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13087,10 +13131,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13338,16 +13382,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13471,12 +13515,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="88" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="86" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13500,79 +13544,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="89">
+      <c r="B6" s="87">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="89">
+      <c r="B7" s="87">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="89">
+      <c r="B8" s="87">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="89">
+      <c r="B9" s="87">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="89">
+      <c r="B10" s="87">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="90">
+      <c r="B11" s="88">
         <v>42307</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="60">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="85">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="82">
         <v>146.3</v>
       </c>
     </row>
@@ -13597,12 +13641,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="88" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="86" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13626,108 +13670,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="89">
+      <c r="B6" s="87">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="89">
+      <c r="B7" s="87">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="89">
+      <c r="B8" s="87">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="89">
+      <c r="B9" s="87">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="89">
+      <c r="B10" s="87">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="89">
+      <c r="B11" s="87">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="89">
+      <c r="B12" s="87">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="89">
+      <c r="B13" s="87">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="89">
+      <c r="B14" s="87">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="89">
+      <c r="B15" s="87">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>-69.1</v>
       </c>
     </row>
@@ -13738,7 +13782,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>23</v>
       </c>
     </row>
@@ -13749,7 +13793,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>176.66</v>
       </c>
     </row>
@@ -13760,7 +13804,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>158</v>
       </c>
     </row>
@@ -13771,7 +13815,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>22.33</v>
       </c>
     </row>
@@ -13782,7 +13826,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>94.67</v>
       </c>
     </row>
@@ -13793,7 +13837,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>60</v>
       </c>
     </row>
@@ -13804,7 +13848,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>67.46</v>
       </c>
     </row>
@@ -13815,7 +13859,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>76.4</v>
       </c>
     </row>
@@ -13826,7 +13870,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>60.66</v>
       </c>
     </row>
@@ -13837,7 +13881,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>-108.47</v>
       </c>
     </row>
@@ -13848,7 +13892,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -13863,10 +13907,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="60">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="85">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -13874,13 +13918,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="82">
         <v>657.37</v>
       </c>
     </row>
@@ -13904,15 +13948,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13941,7 +13985,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>59.26</v>
       </c>
     </row>
@@ -13952,7 +13996,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>36.66</v>
       </c>
     </row>
@@ -13963,7 +14007,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>69.33</v>
       </c>
     </row>
@@ -13971,10 +14015,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="60">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="85">
         <v>26.4</v>
       </c>
     </row>
@@ -13985,7 +14029,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>50</v>
       </c>
     </row>
@@ -13996,7 +14040,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>51.66</v>
       </c>
     </row>
@@ -14007,7 +14051,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>-61.25</v>
       </c>
     </row>
@@ -14018,7 +14062,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>40.75</v>
       </c>
     </row>
@@ -14029,7 +14073,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>41.25</v>
       </c>
     </row>
@@ -14040,7 +14084,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>68.19</v>
       </c>
     </row>
@@ -14051,7 +14095,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>-51.55</v>
       </c>
     </row>
@@ -14062,7 +14106,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>-31.38</v>
       </c>
     </row>
@@ -14073,7 +14117,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>47.74</v>
       </c>
     </row>
@@ -14084,7 +14128,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>22.04</v>
       </c>
     </row>
@@ -14095,7 +14139,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>33.29</v>
       </c>
     </row>
@@ -14106,7 +14150,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>-37.95</v>
       </c>
     </row>
@@ -14117,7 +14161,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>-27.51</v>
       </c>
     </row>
@@ -14128,7 +14172,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>37.62</v>
       </c>
     </row>
@@ -14139,7 +14183,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>20.56</v>
       </c>
     </row>
@@ -14150,7 +14194,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>31.97</v>
       </c>
     </row>
@@ -14161,7 +14205,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>21.43</v>
       </c>
     </row>
@@ -14172,7 +14216,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>25.85</v>
       </c>
     </row>
@@ -14183,18 +14227,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="82">
         <v>259.69</v>
       </c>
     </row>
@@ -14218,16 +14262,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14247,31 +14291,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="60">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="85">
         <v>5.98</v>
       </c>
     </row>
@@ -14282,7 +14326,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>10.15</v>
       </c>
     </row>
@@ -14293,7 +14337,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>-11.75</v>
       </c>
     </row>
@@ -14304,7 +14348,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>16.39</v>
       </c>
     </row>
@@ -14315,7 +14359,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>-25.55</v>
       </c>
     </row>
@@ -14326,7 +14370,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>11.45</v>
       </c>
     </row>
@@ -14337,7 +14381,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>7.68</v>
       </c>
     </row>
@@ -14348,7 +14392,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>-8.57</v>
       </c>
     </row>
@@ -14359,7 +14403,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>-15.65</v>
       </c>
     </row>
@@ -14370,7 +14414,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>10.16</v>
       </c>
     </row>
@@ -14381,7 +14425,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>17.65</v>
       </c>
     </row>
@@ -14392,7 +14436,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>21.08</v>
       </c>
     </row>
@@ -14403,7 +14447,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>-13.14</v>
       </c>
     </row>
@@ -14414,7 +14458,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>-17.07</v>
       </c>
     </row>
@@ -14425,7 +14469,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>9.69</v>
       </c>
     </row>
@@ -14436,7 +14480,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>-7.94</v>
       </c>
     </row>
@@ -14447,7 +14491,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>9.42</v>
       </c>
     </row>
@@ -14458,7 +14502,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>21.99</v>
       </c>
     </row>
@@ -14469,7 +14513,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>14.64</v>
       </c>
     </row>
@@ -14480,7 +14524,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>8.1</v>
       </c>
     </row>
@@ -14491,7 +14535,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="79">
         <v>-8.61</v>
       </c>
     </row>
@@ -14502,7 +14546,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="79">
         <v>11.67</v>
       </c>
     </row>
@@ -14513,7 +14557,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="79">
         <v>10.26</v>
       </c>
     </row>
@@ -14524,7 +14568,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="79">
         <v>11.04</v>
       </c>
     </row>
@@ -14535,7 +14579,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="79">
         <v>13.18</v>
       </c>
     </row>
@@ -14546,7 +14590,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="80">
         <v>12.06</v>
       </c>
     </row>
@@ -14557,7 +14601,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="80">
         <v>8.89</v>
       </c>
     </row>
@@ -14568,7 +14612,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="80">
         <v>10.88</v>
       </c>
     </row>
@@ -14627,7 +14671,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="2:4">
+    <row r="42" ht="15.6" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14722,7 +14766,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="82">
+      <c r="D50" s="80">
         <v>-14.86</v>
       </c>
     </row>
@@ -14733,7 +14777,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="82">
+      <c r="D51" s="80">
         <v>11.3</v>
       </c>
     </row>
@@ -14744,7 +14788,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="82">
+      <c r="D52" s="80">
         <v>-9.92</v>
       </c>
     </row>
@@ -14755,7 +14799,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="82">
+      <c r="D53" s="80">
         <v>8.18</v>
       </c>
     </row>
@@ -14766,7 +14810,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="82">
+      <c r="D54" s="80">
         <v>-4.63</v>
       </c>
     </row>
@@ -14789,16 +14833,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14824,31 +14868,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="60">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="85">
         <v>5.98</v>
       </c>
     </row>
@@ -14859,7 +14903,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>10.15</v>
       </c>
     </row>
@@ -14870,7 +14914,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>-11.75</v>
       </c>
     </row>
@@ -14881,7 +14925,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>16.39</v>
       </c>
     </row>
@@ -14892,7 +14936,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>-25.55</v>
       </c>
     </row>
@@ -14903,7 +14947,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>11.45</v>
       </c>
     </row>
@@ -14914,7 +14958,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>7.68</v>
       </c>
     </row>
@@ -14925,7 +14969,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>-8.57</v>
       </c>
     </row>
@@ -14936,7 +14980,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>-15.65</v>
       </c>
     </row>
@@ -14947,7 +14991,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>10.16</v>
       </c>
     </row>
@@ -14958,7 +15002,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>17.65</v>
       </c>
     </row>
@@ -14969,7 +15013,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>21.08</v>
       </c>
     </row>
@@ -14980,7 +15024,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>-13.14</v>
       </c>
     </row>
@@ -14991,7 +15035,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>-17.07</v>
       </c>
     </row>
@@ -15002,7 +15046,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>9.69</v>
       </c>
     </row>
@@ -15013,7 +15057,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>-7.94</v>
       </c>
     </row>
@@ -15024,7 +15068,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>9.42</v>
       </c>
     </row>
@@ -15035,7 +15079,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>21.99</v>
       </c>
     </row>
@@ -15046,7 +15090,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>14.64</v>
       </c>
     </row>
@@ -15057,7 +15101,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>8.1</v>
       </c>
     </row>
@@ -15066,23 +15110,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="82"/>
+      <c r="D29" s="80"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="82"/>
+      <c r="D30" s="80"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="82">
         <v>15.39</v>
       </c>
     </row>
@@ -15106,16 +15150,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15314,13 +15358,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="82">
         <v>35.86</v>
       </c>
     </row>
@@ -15344,16 +15388,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15382,7 +15426,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="79">
         <v>11.57</v>
       </c>
     </row>
@@ -15393,7 +15437,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="79">
         <v>2.01</v>
       </c>
     </row>
@@ -15404,7 +15448,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="79">
         <v>7.37</v>
       </c>
     </row>
@@ -15415,7 +15459,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="79">
         <v>10.32</v>
       </c>
     </row>
@@ -15426,7 +15470,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="79">
         <v>8.22</v>
       </c>
     </row>
@@ -15437,7 +15481,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>-14.86</v>
       </c>
     </row>
@@ -15448,7 +15492,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>11.3</v>
       </c>
     </row>
@@ -15459,7 +15503,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>-9.92</v>
       </c>
     </row>
@@ -15470,7 +15514,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>8.18</v>
       </c>
     </row>
@@ -15481,7 +15525,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>-4.63</v>
       </c>
     </row>
@@ -15492,7 +15536,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>-13.93</v>
       </c>
     </row>
@@ -15503,7 +15547,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>8.68</v>
       </c>
     </row>
@@ -15514,7 +15558,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>8.19</v>
       </c>
     </row>
@@ -15525,7 +15569,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>11.79</v>
       </c>
     </row>
@@ -15536,7 +15580,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>7.63</v>
       </c>
     </row>
@@ -15547,7 +15591,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>11.12</v>
       </c>
     </row>
@@ -15558,7 +15602,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>-10.16</v>
       </c>
     </row>
@@ -15569,7 +15613,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>26.29</v>
       </c>
     </row>
@@ -15580,7 +15624,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>-6.01</v>
       </c>
     </row>
@@ -15591,7 +15635,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>7.72</v>
       </c>
     </row>
@@ -15602,7 +15646,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>-8.29</v>
       </c>
     </row>
@@ -15613,7 +15657,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>10.41</v>
       </c>
     </row>
@@ -15624,18 +15668,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="82">
         <v>30.41</v>
       </c>
     </row>
@@ -15659,16 +15703,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15697,7 +15741,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="79">
         <v>9.93</v>
       </c>
     </row>
@@ -15708,7 +15752,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="79">
         <v>21.55</v>
       </c>
     </row>
@@ -15719,7 +15763,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>-9.01</v>
       </c>
     </row>
@@ -15730,7 +15774,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>12.66</v>
       </c>
     </row>
@@ -15741,7 +15785,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>-12.17</v>
       </c>
     </row>
@@ -15752,7 +15796,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>34.53</v>
       </c>
     </row>
@@ -15763,7 +15807,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>8.89</v>
       </c>
     </row>
@@ -15774,7 +15818,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>32.33</v>
       </c>
     </row>
@@ -15785,7 +15829,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>-17.71</v>
       </c>
     </row>
@@ -15796,7 +15840,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>-15.53</v>
       </c>
     </row>
@@ -15807,7 +15851,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>9.57</v>
       </c>
     </row>
@@ -15818,7 +15862,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>-7.86</v>
       </c>
     </row>
@@ -15829,7 +15873,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>6.81</v>
       </c>
     </row>
@@ -15840,7 +15884,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>21.56</v>
       </c>
     </row>
@@ -15851,7 +15895,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>-18.57</v>
       </c>
     </row>
@@ -15862,7 +15906,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>12.33</v>
       </c>
     </row>
@@ -15873,7 +15917,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>8.05</v>
       </c>
     </row>
@@ -15884,7 +15928,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>-23.18</v>
       </c>
     </row>
@@ -15895,7 +15939,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>-15.23</v>
       </c>
     </row>
@@ -15906,7 +15950,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>20.29</v>
       </c>
     </row>
@@ -15915,16 +15959,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="82"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="82">
         <v>40.11</v>
       </c>
     </row>

--- a/天天利一号2018年10月收益表.xlsx
+++ b/天天利一号2018年10月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="24345" windowHeight="12540" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -121,15 +121,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -178,16 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +201,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +223,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,35 +275,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,29 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,7 +308,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +343,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,25 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,49 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +427,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,49 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +487,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,60 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -747,7 +693,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,8 +716,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1073,13 +1073,13 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,10 +1088,10 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,37 +1106,22 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,7 +1130,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,37 +1139,40 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3233,40 +3221,49 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-8</c:v>
+                  <c:v>2018/10/8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-9</c:v>
+                  <c:v>2018/10/9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-10</c:v>
+                  <c:v>2018/10/10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-11</c:v>
+                  <c:v>2018/10/11</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-12</c:v>
+                  <c:v>2018/10/12</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-15</c:v>
+                  <c:v>2018/10/15</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-16</c:v>
+                  <c:v>2018/10/16</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-17</c:v>
+                  <c:v>2018/10/17</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-18</c:v>
+                  <c:v>2018/10/18</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-19</c:v>
+                  <c:v>2018/10/19</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-22</c:v>
+                  <c:v>2018/10/22</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-23</c:v>
+                  <c:v>2018/10/23</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/24</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/25</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/26</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3315,6 +3312,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-6.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,40 +3415,49 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-8</c:v>
+                  <c:v>2018/10/8</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-9</c:v>
+                  <c:v>2018/10/9</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-10</c:v>
+                  <c:v>2018/10/10</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-11</c:v>
+                  <c:v>2018/10/11</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-12</c:v>
+                  <c:v>2018/10/12</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-15</c:v>
+                  <c:v>2018/10/15</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-16</c:v>
+                  <c:v>2018/10/16</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-17</c:v>
+                  <c:v>2018/10/17</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-18</c:v>
+                  <c:v>2018/10/18</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-19</c:v>
+                  <c:v>2018/10/19</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-22</c:v>
+                  <c:v>2018/10/22</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018-10-23</c:v>
+                  <c:v>2018/10/23</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/24</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/25</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>2018/10/26</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3491,6 +3506,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.00379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.00894</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.01415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.005631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10853,8 +10877,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="2036445"/>
-        <a:ext cx="14596110" cy="7077075"/>
+        <a:off x="4695825" y="1990725"/>
+        <a:ext cx="16173450" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10888,8 +10912,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5538470" y="1360170"/>
-        <a:ext cx="9117965" cy="5017770"/>
+        <a:off x="6137910" y="1325880"/>
+        <a:ext cx="10141585" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10909,13 +10933,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>509905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>307975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>191770</xdr:rowOff>
+      <xdr:rowOff>182245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10923,8 +10947,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6965315" y="866140"/>
-        <a:ext cx="9711690" cy="4183380"/>
+        <a:off x="7682865" y="822325"/>
+        <a:ext cx="10801985" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10958,8 +10982,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="4359910"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="4337050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10993,8 +11017,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="344805"/>
-        <a:ext cx="8574405" cy="5372100"/>
+        <a:off x="5414010" y="333375"/>
+        <a:ext cx="9598660" cy="5257800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11028,8 +11052,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5071745" y="365760"/>
-        <a:ext cx="9237345" cy="6006465"/>
+        <a:off x="5534025" y="342900"/>
+        <a:ext cx="10334625" cy="5857875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11063,8 +11087,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="1424940"/>
-        <a:ext cx="9305925" cy="5915025"/>
+        <a:off x="4695825" y="1390650"/>
+        <a:ext cx="10334625" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11098,8 +11122,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4881880" y="1034415"/>
-        <a:ext cx="8715375" cy="5781675"/>
+        <a:off x="5344160" y="1000125"/>
+        <a:ext cx="9744075" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11133,8 +11157,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4248785" y="1050925"/>
-        <a:ext cx="9290050" cy="5894705"/>
+        <a:off x="4711065" y="1016635"/>
+        <a:ext cx="10314305" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11168,8 +11192,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4513580" y="1105535"/>
-        <a:ext cx="9031605" cy="5894705"/>
+        <a:off x="4975860" y="1071245"/>
+        <a:ext cx="10055860" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11203,8 +11227,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="5129530"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="5118100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11238,8 +11262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4323080" y="1217295"/>
-        <a:ext cx="9116695" cy="5461000"/>
+        <a:off x="4785360" y="1183005"/>
+        <a:ext cx="10140950" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11273,8 +11297,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="1312545"/>
-        <a:ext cx="9049385" cy="5417185"/>
+        <a:off x="5414010" y="1278255"/>
+        <a:ext cx="10141585" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11580,12 +11604,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="86" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11602,167 +11626,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="87">
+      <c r="B6" s="83">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="75">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="87">
+      <c r="B7" s="83">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="75">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="87">
+      <c r="B8" s="83">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="75">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="87">
+      <c r="B9" s="83">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="75">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="87">
+      <c r="B10" s="83">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="87">
+      <c r="B11" s="83">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="87">
+      <c r="B12" s="83">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="87">
+      <c r="B13" s="83">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="87">
+      <c r="B14" s="83">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="87">
+      <c r="B15" s="83">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="87">
+      <c r="B16" s="83">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="87">
+      <c r="B17" s="83">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="87">
+      <c r="B18" s="83">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="87">
+      <c r="B19" s="83">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="87">
+      <c r="B20" s="83">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>-69.1</v>
       </c>
     </row>
@@ -11773,7 +11797,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>23</v>
       </c>
     </row>
@@ -11784,7 +11808,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>176.66</v>
       </c>
     </row>
@@ -11795,7 +11819,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>158</v>
       </c>
     </row>
@@ -11806,7 +11830,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>22.33</v>
       </c>
     </row>
@@ -11817,7 +11841,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>94.67</v>
       </c>
     </row>
@@ -11828,7 +11852,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>60</v>
       </c>
     </row>
@@ -11839,7 +11863,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="75">
         <v>67.46</v>
       </c>
     </row>
@@ -11850,7 +11874,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="75">
         <v>76.4</v>
       </c>
     </row>
@@ -11861,7 +11885,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="80">
+      <c r="D29" s="75">
         <v>60.66</v>
       </c>
     </row>
@@ -11872,7 +11896,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="75">
         <v>-108.47</v>
       </c>
     </row>
@@ -11883,7 +11907,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="80">
+      <c r="D31" s="75">
         <v>49.4</v>
       </c>
     </row>
@@ -11894,7 +11918,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="75">
         <v>69.73</v>
       </c>
     </row>
@@ -11905,7 +11929,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="80">
+      <c r="D33" s="75">
         <v>59.26</v>
       </c>
     </row>
@@ -11916,7 +11940,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="75">
         <v>36.66</v>
       </c>
     </row>
@@ -11927,7 +11951,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="75">
         <v>69.33</v>
       </c>
     </row>
@@ -11935,10 +11959,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="80">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="81">
         <v>26.4</v>
       </c>
     </row>
@@ -11949,7 +11973,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="80">
+      <c r="D37" s="75">
         <v>50</v>
       </c>
     </row>
@@ -11960,7 +11984,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="75">
         <v>51.66</v>
       </c>
     </row>
@@ -11971,7 +11995,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D39" s="75">
         <v>-61.25</v>
       </c>
     </row>
@@ -11982,7 +12006,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="75">
         <v>40.75</v>
       </c>
     </row>
@@ -11993,7 +12017,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="80">
+      <c r="D41" s="75">
         <v>41.25</v>
       </c>
     </row>
@@ -12004,7 +12028,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="75">
         <v>68.19</v>
       </c>
     </row>
@@ -12015,7 +12039,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="80">
+      <c r="D43" s="75">
         <v>-51.55</v>
       </c>
     </row>
@@ -12026,7 +12050,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="80">
+      <c r="D44" s="75">
         <v>-31.38</v>
       </c>
     </row>
@@ -12037,7 +12061,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="80">
+      <c r="D45" s="75">
         <v>47.74</v>
       </c>
     </row>
@@ -12048,7 +12072,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="80">
+      <c r="D46" s="75">
         <v>22.04</v>
       </c>
     </row>
@@ -12059,7 +12083,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="80">
+      <c r="D47" s="75">
         <v>33.29</v>
       </c>
     </row>
@@ -12070,7 +12094,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="80">
+      <c r="D48" s="75">
         <v>-37.95</v>
       </c>
     </row>
@@ -12081,7 +12105,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="80">
+      <c r="D49" s="75">
         <v>-27.51</v>
       </c>
     </row>
@@ -12092,7 +12116,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="80">
+      <c r="D50" s="75">
         <v>37.62</v>
       </c>
     </row>
@@ -12103,7 +12127,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="80">
+      <c r="D51" s="75">
         <v>20.56</v>
       </c>
     </row>
@@ -12114,7 +12138,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="80">
+      <c r="D52" s="75">
         <v>31.97</v>
       </c>
     </row>
@@ -12125,7 +12149,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="80">
+      <c r="D53" s="75">
         <v>21.43</v>
       </c>
     </row>
@@ -12136,7 +12160,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="75">
         <v>25.85</v>
       </c>
     </row>
@@ -12147,7 +12171,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="80">
+      <c r="D55" s="75">
         <v>-9.47</v>
       </c>
     </row>
@@ -12170,16 +12194,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12206,14 +12230,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="79"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="79"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12222,7 +12246,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="75">
         <v>11.13</v>
       </c>
     </row>
@@ -12233,7 +12257,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="75">
         <v>-9.71</v>
       </c>
     </row>
@@ -12244,7 +12268,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>-12.26</v>
       </c>
     </row>
@@ -12255,7 +12279,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>8.6</v>
       </c>
     </row>
@@ -12266,7 +12290,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>6.16</v>
       </c>
     </row>
@@ -12277,7 +12301,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>7.19</v>
       </c>
     </row>
@@ -12288,7 +12312,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>25.24</v>
       </c>
     </row>
@@ -12299,7 +12323,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>33.1</v>
       </c>
     </row>
@@ -12310,7 +12334,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>-13.26</v>
       </c>
     </row>
@@ -12321,7 +12345,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>8.71</v>
       </c>
     </row>
@@ -12332,7 +12356,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>6.02</v>
       </c>
     </row>
@@ -12343,7 +12367,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>15.17</v>
       </c>
     </row>
@@ -12354,7 +12378,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>-24.9</v>
       </c>
     </row>
@@ -12365,7 +12389,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>5.59</v>
       </c>
     </row>
@@ -12376,7 +12400,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>9.46</v>
       </c>
     </row>
@@ -12387,7 +12411,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>-2.89</v>
       </c>
     </row>
@@ -12398,7 +12422,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>-7.94</v>
       </c>
     </row>
@@ -12409,7 +12433,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>-11.84</v>
       </c>
     </row>
@@ -12420,7 +12444,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>5.15</v>
       </c>
     </row>
@@ -12431,7 +12455,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="75">
         <v>9.25</v>
       </c>
     </row>
@@ -12442,7 +12466,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="75">
         <v>-13.74</v>
       </c>
     </row>
@@ -12464,23 +12488,23 @@
   </sheetPr>
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6666666666667" style="44" customWidth="1"/>
     <col min="9" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12764,81 +12788,120 @@
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B18" s="34"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="34">
+        <v>43397</v>
+      </c>
+      <c r="C18" s="53">
+        <f>$E18*$H$3+$D17</f>
+        <v>-0.00894</v>
+      </c>
+      <c r="D18" s="54">
+        <f>$E18*$H$3+$D17</f>
+        <v>-0.00894</v>
+      </c>
+      <c r="E18" s="55">
+        <f>IF(F18&gt;0,$F18*$G$3,IF(F18&lt;0,F18))</f>
+        <v>-12.73</v>
+      </c>
+      <c r="F18" s="58">
+        <v>-12.73</v>
+      </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B19" s="34"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="34">
+        <v>43398</v>
+      </c>
+      <c r="C19" s="53">
+        <f>$E19*$H$3+$D18</f>
+        <v>-0.01415</v>
+      </c>
+      <c r="D19" s="54">
+        <f>$E19*$H$3+$D18</f>
+        <v>-0.01415</v>
+      </c>
+      <c r="E19" s="55">
+        <f>IF(F19&gt;0,$F19*$G$3,IF(F19&lt;0,F19))</f>
+        <v>-5.21</v>
+      </c>
+      <c r="F19" s="58">
+        <v>-5.21</v>
+      </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B20" s="34"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="34">
+        <v>43399</v>
+      </c>
+      <c r="C20" s="53">
+        <f>$E20*$H$3+$D19</f>
+        <v>-0.005631</v>
+      </c>
+      <c r="D20" s="54">
+        <f>$E20*$H$3+$D19</f>
+        <v>-0.005631</v>
+      </c>
+      <c r="E20" s="55">
+        <f>IF(F20&gt;0,$F20*$G$3,IF(F20&lt;0,F20))</f>
+        <v>8.519</v>
+      </c>
+      <c r="F20" s="60">
+        <v>12.17</v>
+      </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
       <c r="C21" s="53"/>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
-      <c r="F21" s="66"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
       <c r="C24" s="10"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="72"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="72"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="65"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="57"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="72"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="38"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="72"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="38"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="77"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
@@ -12846,7 +12909,7 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="51"/>
-      <c r="E29" s="66"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="59"/>
     </row>
   </sheetData>
@@ -12871,16 +12934,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13131,10 +13194,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13382,16 +13445,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13515,12 +13578,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="86" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13544,79 +13607,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="87">
+      <c r="B6" s="83">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="75">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="87">
+      <c r="B7" s="83">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="75">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="87">
+      <c r="B8" s="83">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="75">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="87">
+      <c r="B9" s="83">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="75">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="87">
+      <c r="B10" s="83">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="88">
+      <c r="B11" s="84">
         <v>42307</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="80">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="81">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="77">
         <v>146.3</v>
       </c>
     </row>
@@ -13641,12 +13704,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="86" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13670,108 +13733,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="87">
+      <c r="B6" s="83">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="87">
+      <c r="B7" s="83">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="75">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="87">
+      <c r="B8" s="83">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="75">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="87">
+      <c r="B9" s="83">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="75">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="87">
+      <c r="B10" s="83">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="87">
+      <c r="B11" s="83">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="87">
+      <c r="B12" s="83">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="87">
+      <c r="B13" s="83">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="87">
+      <c r="B14" s="83">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="87">
+      <c r="B15" s="83">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>-69.1</v>
       </c>
     </row>
@@ -13782,7 +13845,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>23</v>
       </c>
     </row>
@@ -13793,7 +13856,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>176.66</v>
       </c>
     </row>
@@ -13804,7 +13867,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>158</v>
       </c>
     </row>
@@ -13815,7 +13878,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>22.33</v>
       </c>
     </row>
@@ -13826,7 +13889,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>94.67</v>
       </c>
     </row>
@@ -13837,7 +13900,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>60</v>
       </c>
     </row>
@@ -13848,7 +13911,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>67.46</v>
       </c>
     </row>
@@ -13859,7 +13922,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>76.4</v>
       </c>
     </row>
@@ -13870,7 +13933,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>60.66</v>
       </c>
     </row>
@@ -13881,7 +13944,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>-108.47</v>
       </c>
     </row>
@@ -13892,7 +13955,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -13907,10 +13970,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="80">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="81">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -13918,13 +13981,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="77">
         <v>657.37</v>
       </c>
     </row>
@@ -13948,15 +14011,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13985,7 +14048,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="75">
         <v>59.26</v>
       </c>
     </row>
@@ -13996,7 +14059,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="75">
         <v>36.66</v>
       </c>
     </row>
@@ -14007,7 +14070,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="75">
         <v>69.33</v>
       </c>
     </row>
@@ -14015,10 +14078,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="80">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="81">
         <v>26.4</v>
       </c>
     </row>
@@ -14029,7 +14092,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>50</v>
       </c>
     </row>
@@ -14040,7 +14103,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>51.66</v>
       </c>
     </row>
@@ -14051,7 +14114,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>-61.25</v>
       </c>
     </row>
@@ -14062,7 +14125,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>40.75</v>
       </c>
     </row>
@@ -14073,7 +14136,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>41.25</v>
       </c>
     </row>
@@ -14084,7 +14147,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>68.19</v>
       </c>
     </row>
@@ -14095,7 +14158,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>-51.55</v>
       </c>
     </row>
@@ -14106,7 +14169,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>-31.38</v>
       </c>
     </row>
@@ -14117,7 +14180,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>47.74</v>
       </c>
     </row>
@@ -14128,7 +14191,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>22.04</v>
       </c>
     </row>
@@ -14139,7 +14202,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>33.29</v>
       </c>
     </row>
@@ -14150,7 +14213,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>-37.95</v>
       </c>
     </row>
@@ -14161,7 +14224,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>-27.51</v>
       </c>
     </row>
@@ -14172,7 +14235,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>37.62</v>
       </c>
     </row>
@@ -14183,7 +14246,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>20.56</v>
       </c>
     </row>
@@ -14194,7 +14257,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>31.97</v>
       </c>
     </row>
@@ -14205,7 +14268,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>21.43</v>
       </c>
     </row>
@@ -14216,7 +14279,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="75">
         <v>25.85</v>
       </c>
     </row>
@@ -14227,18 +14290,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="75">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="77">
         <v>259.69</v>
       </c>
     </row>
@@ -14262,16 +14325,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14291,31 +14354,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="80">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="81">
         <v>5.98</v>
       </c>
     </row>
@@ -14326,7 +14389,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>10.15</v>
       </c>
     </row>
@@ -14337,7 +14400,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>-11.75</v>
       </c>
     </row>
@@ -14348,7 +14411,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>16.39</v>
       </c>
     </row>
@@ -14359,7 +14422,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>-25.55</v>
       </c>
     </row>
@@ -14370,7 +14433,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>11.45</v>
       </c>
     </row>
@@ -14381,7 +14444,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>7.68</v>
       </c>
     </row>
@@ -14392,7 +14455,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>-8.57</v>
       </c>
     </row>
@@ -14403,7 +14466,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>-15.65</v>
       </c>
     </row>
@@ -14414,7 +14477,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>10.16</v>
       </c>
     </row>
@@ -14425,7 +14488,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>17.65</v>
       </c>
     </row>
@@ -14436,7 +14499,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>21.08</v>
       </c>
     </row>
@@ -14447,7 +14510,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>-13.14</v>
       </c>
     </row>
@@ -14458,7 +14521,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>-17.07</v>
       </c>
     </row>
@@ -14469,7 +14532,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>9.69</v>
       </c>
     </row>
@@ -14480,7 +14543,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>-7.94</v>
       </c>
     </row>
@@ -14491,7 +14554,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>9.42</v>
       </c>
     </row>
@@ -14502,7 +14565,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>21.99</v>
       </c>
     </row>
@@ -14513,7 +14576,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="75">
         <v>14.64</v>
       </c>
     </row>
@@ -14524,7 +14587,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="75">
         <v>8.1</v>
       </c>
     </row>
@@ -14535,7 +14598,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="74">
         <v>-8.61</v>
       </c>
     </row>
@@ -14546,7 +14609,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="74">
         <v>11.67</v>
       </c>
     </row>
@@ -14557,7 +14620,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="74">
         <v>10.26</v>
       </c>
     </row>
@@ -14568,7 +14631,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="74">
         <v>11.04</v>
       </c>
     </row>
@@ -14579,7 +14642,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="74">
         <v>13.18</v>
       </c>
     </row>
@@ -14590,7 +14653,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="75">
         <v>12.06</v>
       </c>
     </row>
@@ -14601,7 +14664,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="75">
         <v>8.89</v>
       </c>
     </row>
@@ -14612,7 +14675,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="80">
+      <c r="D36" s="75">
         <v>10.88</v>
       </c>
     </row>
@@ -14671,7 +14734,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="2:4">
+    <row r="42" ht="14.25" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14766,7 +14829,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="80">
+      <c r="D50" s="75">
         <v>-14.86</v>
       </c>
     </row>
@@ -14777,7 +14840,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="80">
+      <c r="D51" s="75">
         <v>11.3</v>
       </c>
     </row>
@@ -14788,7 +14851,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="80">
+      <c r="D52" s="75">
         <v>-9.92</v>
       </c>
     </row>
@@ -14799,7 +14862,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="80">
+      <c r="D53" s="75">
         <v>8.18</v>
       </c>
     </row>
@@ -14810,7 +14873,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="75">
         <v>-4.63</v>
       </c>
     </row>
@@ -14833,16 +14896,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14868,31 +14931,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="80">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="81">
         <v>5.98</v>
       </c>
     </row>
@@ -14903,7 +14966,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>10.15</v>
       </c>
     </row>
@@ -14914,7 +14977,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>-11.75</v>
       </c>
     </row>
@@ -14925,7 +14988,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>16.39</v>
       </c>
     </row>
@@ -14936,7 +14999,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>-25.55</v>
       </c>
     </row>
@@ -14947,7 +15010,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>11.45</v>
       </c>
     </row>
@@ -14958,7 +15021,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>7.68</v>
       </c>
     </row>
@@ -14969,7 +15032,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>-8.57</v>
       </c>
     </row>
@@ -14980,7 +15043,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>-15.65</v>
       </c>
     </row>
@@ -14991,7 +15054,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>10.16</v>
       </c>
     </row>
@@ -15002,7 +15065,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>17.65</v>
       </c>
     </row>
@@ -15013,7 +15076,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>21.08</v>
       </c>
     </row>
@@ -15024,7 +15087,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>-13.14</v>
       </c>
     </row>
@@ -15035,7 +15098,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>-17.07</v>
       </c>
     </row>
@@ -15046,7 +15109,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>9.69</v>
       </c>
     </row>
@@ -15057,7 +15120,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>-7.94</v>
       </c>
     </row>
@@ -15068,7 +15131,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>9.42</v>
       </c>
     </row>
@@ -15079,7 +15142,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>21.99</v>
       </c>
     </row>
@@ -15090,7 +15153,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="75">
         <v>14.64</v>
       </c>
     </row>
@@ -15101,7 +15164,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="75">
         <v>8.1</v>
       </c>
     </row>
@@ -15110,23 +15173,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="80"/>
+      <c r="D29" s="75"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="80"/>
+      <c r="D30" s="75"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="77">
         <v>15.39</v>
       </c>
     </row>
@@ -15150,16 +15213,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15358,13 +15421,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="77">
         <v>35.86</v>
       </c>
     </row>
@@ -15388,16 +15451,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15426,7 +15489,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="74">
         <v>11.57</v>
       </c>
     </row>
@@ -15437,7 +15500,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="74">
         <v>2.01</v>
       </c>
     </row>
@@ -15448,7 +15511,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="74">
         <v>7.37</v>
       </c>
     </row>
@@ -15459,7 +15522,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="74">
         <v>10.32</v>
       </c>
     </row>
@@ -15470,7 +15533,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="74">
         <v>8.22</v>
       </c>
     </row>
@@ -15481,7 +15544,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>-14.86</v>
       </c>
     </row>
@@ -15492,7 +15555,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>11.3</v>
       </c>
     </row>
@@ -15503,7 +15566,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>-9.92</v>
       </c>
     </row>
@@ -15514,7 +15577,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>8.18</v>
       </c>
     </row>
@@ -15525,7 +15588,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>-4.63</v>
       </c>
     </row>
@@ -15536,7 +15599,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>-13.93</v>
       </c>
     </row>
@@ -15547,7 +15610,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>8.68</v>
       </c>
     </row>
@@ -15558,7 +15621,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>8.19</v>
       </c>
     </row>
@@ -15569,7 +15632,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>11.79</v>
       </c>
     </row>
@@ -15580,7 +15643,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>7.63</v>
       </c>
     </row>
@@ -15591,7 +15654,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>11.12</v>
       </c>
     </row>
@@ -15602,7 +15665,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>-10.16</v>
       </c>
     </row>
@@ -15613,7 +15676,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>26.29</v>
       </c>
     </row>
@@ -15624,7 +15687,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>-6.01</v>
       </c>
     </row>
@@ -15635,7 +15698,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>7.72</v>
       </c>
     </row>
@@ -15646,7 +15709,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="75">
         <v>-8.29</v>
       </c>
     </row>
@@ -15657,7 +15720,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="75">
         <v>10.41</v>
       </c>
     </row>
@@ -15668,18 +15731,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="75">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="77">
         <v>30.41</v>
       </c>
     </row>
@@ -15703,16 +15766,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15741,7 +15804,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="74">
         <v>9.93</v>
       </c>
     </row>
@@ -15752,7 +15815,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="74">
         <v>21.55</v>
       </c>
     </row>
@@ -15763,7 +15826,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="75">
         <v>-9.01</v>
       </c>
     </row>
@@ -15774,7 +15837,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="75">
         <v>12.66</v>
       </c>
     </row>
@@ -15785,7 +15848,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="75">
         <v>-12.17</v>
       </c>
     </row>
@@ -15796,7 +15859,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="75">
         <v>34.53</v>
       </c>
     </row>
@@ -15807,7 +15870,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="75">
         <v>8.89</v>
       </c>
     </row>
@@ -15818,7 +15881,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="75">
         <v>32.33</v>
       </c>
     </row>
@@ -15829,7 +15892,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>-17.71</v>
       </c>
     </row>
@@ -15840,7 +15903,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="75">
         <v>-15.53</v>
       </c>
     </row>
@@ -15851,7 +15914,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="75">
         <v>9.57</v>
       </c>
     </row>
@@ -15862,7 +15925,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="75">
         <v>-7.86</v>
       </c>
     </row>
@@ -15873,7 +15936,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="75">
         <v>6.81</v>
       </c>
     </row>
@@ -15884,7 +15947,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="75">
         <v>21.56</v>
       </c>
     </row>
@@ -15895,7 +15958,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="75">
         <v>-18.57</v>
       </c>
     </row>
@@ -15906,7 +15969,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="75">
         <v>12.33</v>
       </c>
     </row>
@@ -15917,7 +15980,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="75">
         <v>8.05</v>
       </c>
     </row>
@@ -15928,7 +15991,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="75">
         <v>-23.18</v>
       </c>
     </row>
@@ -15939,7 +16002,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="75">
         <v>-15.23</v>
       </c>
     </row>
@@ -15950,7 +16013,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="75">
         <v>20.29</v>
       </c>
     </row>
@@ -15959,16 +16022,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="77">
         <v>40.11</v>
       </c>
     </row>
